--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73523.1450778811</v>
+        <v>67283.30522868747</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9134465.938994523</v>
+        <v>9134465.938994521</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4456315.226713068</v>
+        <v>4456315.22671307</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>403.1572050940909</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>208.1430288192201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>14.69254647175497</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>166.9888977590065</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -879,10 +879,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>83.08980232885679</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>376.6861762689736</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>18.31993353245281</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1119,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>156.2681271316377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.057407276233985</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>326.1013312453194</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1296,7 +1296,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>5.908005809327624</v>
       </c>
       <c r="T10" t="n">
-        <v>89.45544891595532</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2.996229009896312</v>
       </c>
       <c r="D11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>396.0346945768795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>272.4217836655541</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.9606135828359</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>374.4268935289279</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.3301761740106</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>133.122498409159</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.57375468953282</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>108.7606893493279</v>
       </c>
       <c r="T13" t="n">
-        <v>159.6158662242028</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.615660591221</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>250.5532121524916</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>67.65538200560648</v>
+        <v>211.9606135828359</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1767,10 +1767,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>143.4273155769721</v>
       </c>
       <c r="T16" t="n">
-        <v>159.6158662242028</v>
+        <v>240.8348570146258</v>
       </c>
       <c r="U16" t="n">
-        <v>275.615660591221</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>339.4383759004245</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.5129270689461</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>68.96218280137477</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>83.7477118337117</v>
       </c>
       <c r="H18" t="n">
-        <v>33.75107434575986</v>
+        <v>33.75107434575985</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>48.26721275191196</v>
+        <v>48.26721275191194</v>
       </c>
       <c r="T18" t="n">
         <v>125.7186935680457</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.2784795056893</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>132.6628680308108</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>68.01909488219576</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>146.2012807256457</v>
       </c>
       <c r="T19" t="n">
-        <v>125.3710092358505</v>
+        <v>240.61397124998</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6128407729489</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2067,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>89.92598505228996</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>395.9194457228784</v>
+        <v>160.6796570549037</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>271.241491339516</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>49.44517281569337</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.4561117244464</v>
       </c>
       <c r="U20" t="n">
-        <v>175.0396408835723</v>
+        <v>256.5129270689461</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>83.7477118337117</v>
       </c>
       <c r="H21" t="n">
-        <v>33.75107434575986</v>
+        <v>33.75107434575985</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>48.26721275191196</v>
+        <v>48.26721275191194</v>
       </c>
       <c r="T21" t="n">
         <v>125.7186935680457</v>
@@ -2241,7 +2241,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>125.3710092358505</v>
+        <v>230.147755607194</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6128407729489</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2323,7 +2323,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>421.6548695160708</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -2332,7 +2332,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>9.547556917935472</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>14.8004084536986</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>275.8861790905128</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -2715,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>33.56537913133094</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>25.8230533133315</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
@@ -2794,19 +2794,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>364.3669421563561</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>290.308059797089</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>107.9408652324843</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>102.554036585351</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3037,13 +3037,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>290.308059797089</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>168.9340499260031</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>53.67687460412958</v>
+        <v>25.82305331333166</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>345.409185972417</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>280.9589581250547</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>25.82305331333166</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>102.554036585351</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
@@ -3505,22 +3505,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T38" t="n">
-        <v>33.82807523338802</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>270.3308015633212</v>
       </c>
     </row>
     <row r="39">
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>25.82305331333033</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>102.5540365853523</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>216.2742128518886</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>191.449136226615</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>172.9991021855963</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>160.7335122538386</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3985,13 +3985,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>12.89275099447601</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>379.770318051582</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>160.7335122538376</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>124.9554984777218</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.94366860160834</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C2" t="n">
         <v>33.94366860160834</v>
@@ -4360,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1486.937946424639</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1227.715643741656</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>865.0986936754829</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>460.2432390865162</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>460.2432390865162</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y2" t="n">
-        <v>460.2432390865162</v>
+        <v>869.7548429593813</v>
       </c>
     </row>
     <row r="3">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>368.4973157021125</v>
+        <v>936.2947751752459</v>
       </c>
       <c r="C4" t="n">
-        <v>368.4973157021125</v>
+        <v>763.7330636584709</v>
       </c>
       <c r="D4" t="n">
-        <v>202.6193229036352</v>
+        <v>597.8550708599936</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="X4" t="n">
-        <v>368.4973157021125</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="Y4" t="n">
-        <v>368.4973157021125</v>
+        <v>951.1357312073217</v>
       </c>
     </row>
     <row r="5">
@@ -4546,10 +4546,10 @@
         <v>890.3927724551322</v>
       </c>
       <c r="C5" t="n">
-        <v>461.8110981924006</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="D5" t="n">
-        <v>461.8110981924006</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E5" t="n">
         <v>461.8110981924006</v>
@@ -4594,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1309.535235875821</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1309.535235875821</v>
       </c>
       <c r="W5" t="n">
-        <v>1697.183430080417</v>
+        <v>1309.535235875821</v>
       </c>
       <c r="X5" t="n">
-        <v>1316.69234294004</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="Y5" t="n">
-        <v>1316.69234294004</v>
+        <v>890.3927724551322</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.6507226398521</v>
+        <v>682.0221647221273</v>
       </c>
       <c r="C7" t="n">
-        <v>210.6507226398521</v>
+        <v>682.0221647221273</v>
       </c>
       <c r="D7" t="n">
-        <v>210.6507226398521</v>
+        <v>516.14417192365</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H7" t="n">
         <v>33.94366860160834</v>
@@ -4725,52 +4725,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1678.678446714303</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1519.4370780123</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1519.4370780123</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>1241.004077265405</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>954.0485691358358</v>
       </c>
       <c r="W7" t="n">
-        <v>613.8890703687</v>
+        <v>682.0221647221273</v>
       </c>
       <c r="X7" t="n">
-        <v>368.4973157021125</v>
+        <v>682.0221647221273</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.6507226398521</v>
+        <v>682.0221647221273</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>464.8993883704147</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C8" t="n">
-        <v>464.8993883704147</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D8" t="n">
-        <v>464.8993883704147</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E8" t="n">
-        <v>464.8993883704147</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F8" t="n">
-        <v>37.03195877962247</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G8" t="n">
         <v>33.94366860160834</v>
@@ -4807,22 +4807,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="L8" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="M8" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="N8" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O8" t="n">
         <v>687.9235674375537</v>
       </c>
-      <c r="L8" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q8" t="n">
         <v>1528.02936532736</v>
@@ -4831,25 +4831,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>442.2297923019549</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>442.2297923019549</v>
       </c>
       <c r="Y8" t="n">
-        <v>464.8993883704147</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>383.2124341566272</v>
+        <v>714.6817019292769</v>
       </c>
       <c r="C10" t="n">
-        <v>210.6507226398521</v>
+        <v>542.1199904125018</v>
       </c>
       <c r="D10" t="n">
-        <v>210.6507226398521</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="E10" t="n">
-        <v>210.6507226398521</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G10" t="n">
         <v>33.94366860160834</v>
@@ -4968,46 +4968,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1669.797926150105</v>
       </c>
       <c r="T10" t="n">
-        <v>1606.824390771372</v>
+        <v>1423.91847972856</v>
       </c>
       <c r="U10" t="n">
-        <v>1606.824390771372</v>
+        <v>1423.91847972856</v>
       </c>
       <c r="V10" t="n">
-        <v>1319.868882641802</v>
+        <v>1423.91847972856</v>
       </c>
       <c r="W10" t="n">
-        <v>1047.842478228094</v>
+        <v>1151.892075314852</v>
       </c>
       <c r="X10" t="n">
-        <v>802.450723561506</v>
+        <v>906.5003206482641</v>
       </c>
       <c r="Y10" t="n">
-        <v>575.0310528756143</v>
+        <v>906.5003206482641</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1318.974446717864</v>
+        <v>712.1787264322446</v>
       </c>
       <c r="C11" t="n">
-        <v>1318.974446717864</v>
+        <v>709.1522324828544</v>
       </c>
       <c r="D11" t="n">
-        <v>890.3927724551322</v>
+        <v>709.1522324828544</v>
       </c>
       <c r="E11" t="n">
-        <v>461.8110981924006</v>
+        <v>709.1522324828544</v>
       </c>
       <c r="F11" t="n">
-        <v>33.94366860160834</v>
+        <v>709.1522324828544</v>
       </c>
       <c r="G11" t="n">
-        <v>33.94366860160834</v>
+        <v>309.1171874557034</v>
       </c>
       <c r="H11" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I11" t="n">
-        <v>85.02847154687562</v>
+        <v>85.02847154687564</v>
       </c>
       <c r="J11" t="n">
         <v>198.3915302050083</v>
@@ -5047,16 +5047,16 @@
         <v>368.2933687921386</v>
       </c>
       <c r="L11" t="n">
-        <v>579.0716233077374</v>
+        <v>579.0716233077371</v>
       </c>
       <c r="M11" t="n">
-        <v>813.6030440780561</v>
+        <v>813.603044078056</v>
       </c>
       <c r="N11" t="n">
         <v>1051.92942843149</v>
       </c>
       <c r="O11" t="n">
-        <v>1276.974275035835</v>
+        <v>1276.974275035834</v>
       </c>
       <c r="P11" t="n">
         <v>1469.044845016103</v>
@@ -5071,22 +5071,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T11" t="n">
-        <v>1697.183430080417</v>
+        <v>1483.081800198765</v>
       </c>
       <c r="U11" t="n">
-        <v>1697.183430080417</v>
+        <v>1483.081800198765</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.183430080417</v>
+        <v>1120.464850132591</v>
       </c>
       <c r="W11" t="n">
-        <v>1697.183430080417</v>
+        <v>1120.464850132591</v>
       </c>
       <c r="X11" t="n">
-        <v>1318.974446717864</v>
+        <v>1120.464850132591</v>
       </c>
       <c r="Y11" t="n">
-        <v>1318.974446717864</v>
+        <v>712.1787264322446</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I12" t="n">
-        <v>84.61243668840937</v>
+        <v>58.54876352795178</v>
       </c>
       <c r="J12" t="n">
-        <v>476.6890227767062</v>
+        <v>450.6253496162486</v>
       </c>
       <c r="K12" t="n">
-        <v>592.0884851847554</v>
+        <v>566.0248120242978</v>
       </c>
       <c r="L12" t="n">
-        <v>747.2573035705684</v>
+        <v>721.1936304101108</v>
       </c>
       <c r="M12" t="n">
-        <v>928.3319957864742</v>
+        <v>902.2683226260165</v>
       </c>
       <c r="N12" t="n">
-        <v>1114.199196300772</v>
+        <v>1088.135523140314</v>
       </c>
       <c r="O12" t="n">
-        <v>1284.231372666295</v>
+        <v>1258.167699505837</v>
       </c>
       <c r="P12" t="n">
-        <v>1420.697184501089</v>
+        <v>1394.633511340632</v>
       </c>
       <c r="Q12" t="n">
-        <v>1511.920965741382</v>
+        <v>1511.338018604792</v>
       </c>
       <c r="R12" t="n">
         <v>1672.881462148471</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.94366860160834</v>
+        <v>922.6941038379126</v>
       </c>
       <c r="C13" t="n">
-        <v>33.94366860160834</v>
+        <v>750.1323923211376</v>
       </c>
       <c r="D13" t="n">
-        <v>33.94366860160834</v>
+        <v>750.1323923211376</v>
       </c>
       <c r="E13" t="n">
-        <v>33.94366860160834</v>
+        <v>580.3743885718749</v>
       </c>
       <c r="F13" t="n">
-        <v>33.94366860160834</v>
+        <v>403.667334533631</v>
       </c>
       <c r="G13" t="n">
-        <v>33.94366860160834</v>
+        <v>238.687358600287</v>
       </c>
       <c r="H13" t="n">
-        <v>33.94366860160834</v>
+        <v>104.2201884900254</v>
       </c>
       <c r="I13" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>76.30245582865298</v>
+        <v>162.8821409933428</v>
       </c>
       <c r="K13" t="n">
-        <v>195.3903390088935</v>
+        <v>507.2490950837828</v>
       </c>
       <c r="L13" t="n">
-        <v>615.4432379537967</v>
+        <v>927.301994028686</v>
       </c>
       <c r="M13" t="n">
-        <v>709.36024556032</v>
+        <v>1347.354892973589</v>
       </c>
       <c r="N13" t="n">
-        <v>801.0441166407935</v>
+        <v>1483.919015148672</v>
       </c>
       <c r="O13" t="n">
-        <v>1221.097015585697</v>
+        <v>1568.603909556039</v>
       </c>
       <c r="P13" t="n">
         <v>1641.066466489124</v>
@@ -5226,25 +5226,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>1587.324147909379</v>
       </c>
       <c r="T13" t="n">
-        <v>1535.955282379202</v>
+        <v>1587.324147909379</v>
       </c>
       <c r="U13" t="n">
-        <v>1257.555625216353</v>
+        <v>1587.324147909379</v>
       </c>
       <c r="V13" t="n">
-        <v>970.6001170867833</v>
+        <v>1587.324147909379</v>
       </c>
       <c r="W13" t="n">
-        <v>698.5737126730747</v>
+        <v>1587.324147909379</v>
       </c>
       <c r="X13" t="n">
-        <v>453.1819580064872</v>
+        <v>1341.932393242791</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.7622873205955</v>
+        <v>1114.5127225569</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33.94366860160834</v>
+        <v>715.6093955436245</v>
       </c>
       <c r="C14" t="n">
-        <v>33.94366860160834</v>
+        <v>287.0277212808928</v>
       </c>
       <c r="D14" t="n">
-        <v>33.94366860160834</v>
+        <v>287.0277212808928</v>
       </c>
       <c r="E14" t="n">
-        <v>33.94366860160834</v>
+        <v>287.0277212808928</v>
       </c>
       <c r="F14" t="n">
         <v>33.94366860160834</v>
@@ -5308,22 +5308,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T14" t="n">
-        <v>1628.844660377785</v>
+        <v>1483.081800198765</v>
       </c>
       <c r="U14" t="n">
-        <v>1628.844660377785</v>
+        <v>1483.081800198765</v>
       </c>
       <c r="V14" t="n">
-        <v>1266.227710311611</v>
+        <v>1120.464850132591</v>
       </c>
       <c r="W14" t="n">
-        <v>861.3722557226442</v>
+        <v>715.6093955436245</v>
       </c>
       <c r="X14" t="n">
-        <v>442.2297923019549</v>
+        <v>715.6093955436245</v>
       </c>
       <c r="Y14" t="n">
-        <v>33.94366860160834</v>
+        <v>715.6093955436245</v>
       </c>
     </row>
     <row r="15">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.94366860160834</v>
+        <v>372.3833729168607</v>
       </c>
       <c r="C16" t="n">
-        <v>33.94366860160834</v>
+        <v>199.8216614000857</v>
       </c>
       <c r="D16" t="n">
         <v>33.94366860160834</v>
@@ -5442,16 +5442,16 @@
         <v>507.2490950837828</v>
       </c>
       <c r="L16" t="n">
-        <v>782.6184676270011</v>
+        <v>596.3240091008959</v>
       </c>
       <c r="M16" t="n">
-        <v>876.5354752335243</v>
+        <v>1016.376908045799</v>
       </c>
       <c r="N16" t="n">
-        <v>968.2193463139978</v>
+        <v>1108.060779126273</v>
       </c>
       <c r="O16" t="n">
-        <v>1052.904240721364</v>
+        <v>1192.745673533639</v>
       </c>
       <c r="P16" t="n">
         <v>1472.873691624791</v>
@@ -5463,25 +5463,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S16" t="n">
-        <v>1697.183430080417</v>
+        <v>1552.307353740041</v>
       </c>
       <c r="T16" t="n">
-        <v>1535.955282379202</v>
+        <v>1309.039821402036</v>
       </c>
       <c r="U16" t="n">
-        <v>1257.555625216353</v>
+        <v>1309.039821402036</v>
       </c>
       <c r="V16" t="n">
-        <v>970.6001170867833</v>
+        <v>1309.039821402036</v>
       </c>
       <c r="W16" t="n">
-        <v>698.5737126730747</v>
+        <v>1037.013416988327</v>
       </c>
       <c r="X16" t="n">
-        <v>453.1819580064872</v>
+        <v>791.6216623217397</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.7622873205955</v>
+        <v>564.2019916358479</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1772.538374984447</v>
+        <v>815.6207740994384</v>
       </c>
       <c r="C17" t="n">
-        <v>1334.39590216787</v>
+        <v>815.6207740994384</v>
       </c>
       <c r="D17" t="n">
-        <v>898.4861173423149</v>
+        <v>379.7109892738829</v>
       </c>
       <c r="E17" t="n">
-        <v>464.71137250061</v>
+        <v>379.7109892738829</v>
       </c>
       <c r="F17" t="n">
-        <v>36.84394290981773</v>
+        <v>36.84394290981776</v>
       </c>
       <c r="G17" t="n">
-        <v>36.84394290981773</v>
+        <v>36.84394290981776</v>
       </c>
       <c r="H17" t="n">
-        <v>36.84394290981773</v>
+        <v>36.84394290981776</v>
       </c>
       <c r="I17" t="n">
-        <v>92.32744598452143</v>
+        <v>92.32744598452135</v>
       </c>
       <c r="J17" t="n">
-        <v>215.3742910407015</v>
+        <v>215.3742910407016</v>
       </c>
       <c r="K17" t="n">
-        <v>399.7896151758443</v>
+        <v>399.7896151758445</v>
       </c>
       <c r="L17" t="n">
-        <v>628.5731318839329</v>
+        <v>628.5731318839333</v>
       </c>
       <c r="M17" t="n">
-        <v>883.1388760860092</v>
+        <v>883.1388760860099</v>
       </c>
       <c r="N17" t="n">
-        <v>1141.823760169567</v>
+        <v>1141.823760169568</v>
       </c>
       <c r="O17" t="n">
-        <v>1386.092560769982</v>
+        <v>1386.092560769983</v>
       </c>
       <c r="P17" t="n">
-        <v>1594.570330724002</v>
+        <v>1594.570330724003</v>
       </c>
       <c r="Q17" t="n">
-        <v>1751.128453689708</v>
+        <v>1751.128453689709</v>
       </c>
       <c r="R17" t="n">
-        <v>1842.197145490886</v>
+        <v>1842.197145490888</v>
       </c>
       <c r="S17" t="n">
-        <v>1842.197145490886</v>
+        <v>1842.197145490888</v>
       </c>
       <c r="T17" t="n">
-        <v>1842.197145490886</v>
+        <v>1842.197145490888</v>
       </c>
       <c r="U17" t="n">
-        <v>1842.197145490886</v>
+        <v>1583.093178754579</v>
       </c>
       <c r="V17" t="n">
-        <v>1842.197145490886</v>
+        <v>1220.476228688405</v>
       </c>
       <c r="W17" t="n">
-        <v>1772.538374984447</v>
+        <v>815.6207740994384</v>
       </c>
       <c r="X17" t="n">
-        <v>1772.538374984447</v>
+        <v>815.6207740994384</v>
       </c>
       <c r="Y17" t="n">
-        <v>1772.538374984447</v>
+        <v>815.6207740994384</v>
       </c>
     </row>
     <row r="18">
@@ -5576,46 +5576,46 @@
         <v>428.124127425676</v>
       </c>
       <c r="D18" t="n">
-        <v>333.0338385722292</v>
+        <v>333.0338385722293</v>
       </c>
       <c r="E18" t="n">
-        <v>238.9134238991829</v>
+        <v>238.913423899183</v>
       </c>
       <c r="F18" t="n">
         <v>155.5295855153446</v>
       </c>
       <c r="G18" t="n">
-        <v>70.93593719846405</v>
+        <v>70.93593719846407</v>
       </c>
       <c r="H18" t="n">
-        <v>36.84394290981773</v>
+        <v>36.84394290981776</v>
       </c>
       <c r="I18" t="n">
-        <v>89.61454634219581</v>
+        <v>89.61454634219588</v>
       </c>
       <c r="J18" t="n">
-        <v>162.9004043023792</v>
+        <v>162.9004043023793</v>
       </c>
       <c r="K18" t="n">
-        <v>618.8441978113734</v>
+        <v>288.1576083560479</v>
       </c>
       <c r="L18" t="n">
-        <v>795.5615147773107</v>
+        <v>456.5813769052741</v>
       </c>
       <c r="M18" t="n">
-        <v>992.1041086383102</v>
+        <v>653.1239707662738</v>
       </c>
       <c r="N18" t="n">
-        <v>1193.84860012807</v>
+        <v>854.8684622560337</v>
       </c>
       <c r="O18" t="n">
-        <v>1378.405395855569</v>
+        <v>1039.425257983533</v>
       </c>
       <c r="P18" t="n">
-        <v>1526.528495241413</v>
+        <v>1187.548357369377</v>
       </c>
       <c r="Q18" t="n">
-        <v>1625.544864494149</v>
+        <v>1508.372086399809</v>
       </c>
       <c r="R18" t="n">
         <v>1673.705795058391</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213.5509969480615</v>
+        <v>574.2387571830158</v>
       </c>
       <c r="C19" t="n">
-        <v>213.5509969480615</v>
+        <v>574.2387571830158</v>
       </c>
       <c r="D19" t="n">
-        <v>213.5509969480615</v>
+        <v>574.2387571830158</v>
       </c>
       <c r="E19" t="n">
-        <v>213.5509969480615</v>
+        <v>404.480753433753</v>
       </c>
       <c r="F19" t="n">
-        <v>36.84394290981773</v>
+        <v>404.480753433753</v>
       </c>
       <c r="G19" t="n">
-        <v>36.84394290981773</v>
+        <v>239.5529963572992</v>
       </c>
       <c r="H19" t="n">
-        <v>36.84394290981773</v>
+        <v>105.5500993564802</v>
       </c>
       <c r="I19" t="n">
-        <v>36.84394290981773</v>
+        <v>36.84394290981776</v>
       </c>
       <c r="J19" t="n">
-        <v>169.4008202073695</v>
+        <v>82.8211350426797</v>
       </c>
       <c r="K19" t="n">
-        <v>519.7139250881329</v>
+        <v>239.9909443847542</v>
       </c>
       <c r="L19" t="n">
-        <v>616.3978649287942</v>
+        <v>695.9347378937489</v>
       </c>
       <c r="M19" t="n">
-        <v>984.7853641153119</v>
+        <v>797.8743963670598</v>
       </c>
       <c r="N19" t="n">
-        <v>1440.729157624306</v>
+        <v>897.3901576082153</v>
       </c>
       <c r="O19" t="n">
-        <v>1532.648070223218</v>
+        <v>1353.33395111721</v>
       </c>
       <c r="P19" t="n">
-        <v>1611.30057943443</v>
+        <v>1779.493354298764</v>
       </c>
       <c r="Q19" t="n">
-        <v>1833.9482747997</v>
+        <v>1833.948274799701</v>
       </c>
       <c r="R19" t="n">
-        <v>1842.197145490886</v>
+        <v>1842.197145490888</v>
       </c>
       <c r="S19" t="n">
-        <v>1842.197145490886</v>
+        <v>1694.519084151852</v>
       </c>
       <c r="T19" t="n">
-        <v>1715.559762424371</v>
+        <v>1451.474668747832</v>
       </c>
       <c r="U19" t="n">
-        <v>1437.162953562806</v>
+        <v>1451.474668747832</v>
       </c>
       <c r="V19" t="n">
-        <v>1150.207445433236</v>
+        <v>1164.519160618262</v>
       </c>
       <c r="W19" t="n">
-        <v>878.1810410195279</v>
+        <v>892.4927562045539</v>
       </c>
       <c r="X19" t="n">
-        <v>632.7892863529404</v>
+        <v>801.6584278689074</v>
       </c>
       <c r="Y19" t="n">
-        <v>405.3696156670487</v>
+        <v>574.2387571830158</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1302.772477360498</v>
+        <v>911.2704040035861</v>
       </c>
       <c r="C20" t="n">
-        <v>864.6300045439216</v>
+        <v>473.1279311870094</v>
       </c>
       <c r="D20" t="n">
-        <v>864.6300045439216</v>
+        <v>473.1279311870094</v>
       </c>
       <c r="E20" t="n">
-        <v>864.6300045439216</v>
+        <v>473.1279311870094</v>
       </c>
       <c r="F20" t="n">
-        <v>436.7625749531293</v>
+        <v>473.1279311870094</v>
       </c>
       <c r="G20" t="n">
-        <v>36.84394290981773</v>
+        <v>310.8252472931673</v>
       </c>
       <c r="H20" t="n">
-        <v>36.84394290981773</v>
+        <v>36.84394290981776</v>
       </c>
       <c r="I20" t="n">
-        <v>92.32744598452143</v>
+        <v>92.32744598452156</v>
       </c>
       <c r="J20" t="n">
-        <v>215.3742910407015</v>
+        <v>215.3742910407018</v>
       </c>
       <c r="K20" t="n">
-        <v>399.7896151758442</v>
+        <v>399.7896151758447</v>
       </c>
       <c r="L20" t="n">
-        <v>628.5731318839327</v>
+        <v>628.5731318839336</v>
       </c>
       <c r="M20" t="n">
-        <v>883.1388760860091</v>
+        <v>883.1388760860102</v>
       </c>
       <c r="N20" t="n">
-        <v>1141.823760169567</v>
+        <v>1141.823760169568</v>
       </c>
       <c r="O20" t="n">
-        <v>1386.092560769982</v>
+        <v>1386.092560769983</v>
       </c>
       <c r="P20" t="n">
-        <v>1594.570330724002</v>
+        <v>1594.570330724003</v>
       </c>
       <c r="Q20" t="n">
-        <v>1751.128453689708</v>
+        <v>1751.128453689709</v>
       </c>
       <c r="R20" t="n">
-        <v>1842.197145490886</v>
+        <v>1842.197145490888</v>
       </c>
       <c r="S20" t="n">
-        <v>1842.197145490886</v>
+        <v>1792.252526485137</v>
       </c>
       <c r="T20" t="n">
-        <v>1842.197145490886</v>
+        <v>1578.660494440242</v>
       </c>
       <c r="U20" t="n">
-        <v>1665.389427426672</v>
+        <v>1319.556527703933</v>
       </c>
       <c r="V20" t="n">
-        <v>1302.772477360498</v>
+        <v>1319.556527703933</v>
       </c>
       <c r="W20" t="n">
-        <v>1302.772477360498</v>
+        <v>1319.556527703933</v>
       </c>
       <c r="X20" t="n">
-        <v>1302.772477360498</v>
+        <v>1319.556527703933</v>
       </c>
       <c r="Y20" t="n">
-        <v>1302.772477360498</v>
+        <v>911.2704040035861</v>
       </c>
     </row>
     <row r="21">
@@ -5813,43 +5813,43 @@
         <v>428.124127425676</v>
       </c>
       <c r="D21" t="n">
-        <v>333.0338385722292</v>
+        <v>333.0338385722293</v>
       </c>
       <c r="E21" t="n">
-        <v>238.9134238991829</v>
+        <v>238.913423899183</v>
       </c>
       <c r="F21" t="n">
         <v>155.5295855153446</v>
       </c>
       <c r="G21" t="n">
-        <v>70.93593719846405</v>
+        <v>70.93593719846407</v>
       </c>
       <c r="H21" t="n">
-        <v>36.84394290981773</v>
+        <v>36.84394290981776</v>
       </c>
       <c r="I21" t="n">
-        <v>89.61454634219581</v>
+        <v>89.61454634219588</v>
       </c>
       <c r="J21" t="n">
-        <v>162.9004043023792</v>
+        <v>384.707764080075</v>
       </c>
       <c r="K21" t="n">
-        <v>288.1576083560475</v>
+        <v>509.9649681337435</v>
       </c>
       <c r="L21" t="n">
-        <v>456.5813769052735</v>
+        <v>678.3887366829697</v>
       </c>
       <c r="M21" t="n">
-        <v>653.1239707662731</v>
+        <v>874.9313305439694</v>
       </c>
       <c r="N21" t="n">
-        <v>854.8684622560329</v>
+        <v>1076.675822033729</v>
       </c>
       <c r="O21" t="n">
-        <v>1039.425257983532</v>
+        <v>1261.232617761229</v>
       </c>
       <c r="P21" t="n">
-        <v>1187.548357369376</v>
+        <v>1409.355717147073</v>
       </c>
       <c r="Q21" t="n">
         <v>1508.372086399809</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>213.5509969480615</v>
+        <v>386.1127084648366</v>
       </c>
       <c r="C22" t="n">
-        <v>213.5509969480615</v>
+        <v>213.5509969480616</v>
       </c>
       <c r="D22" t="n">
-        <v>213.5509969480615</v>
+        <v>213.5509969480616</v>
       </c>
       <c r="E22" t="n">
-        <v>213.5509969480615</v>
+        <v>213.5509969480616</v>
       </c>
       <c r="F22" t="n">
-        <v>36.84394290981773</v>
+        <v>36.84394290981776</v>
       </c>
       <c r="G22" t="n">
-        <v>36.84394290981773</v>
+        <v>36.84394290981776</v>
       </c>
       <c r="H22" t="n">
-        <v>36.84394290981773</v>
+        <v>36.84394290981776</v>
       </c>
       <c r="I22" t="n">
-        <v>36.84394290981773</v>
+        <v>36.84394290981776</v>
       </c>
       <c r="J22" t="n">
         <v>169.4008202073695</v>
@@ -5916,46 +5916,46 @@
         <v>519.7139250881329</v>
       </c>
       <c r="L22" t="n">
-        <v>616.3978649287942</v>
+        <v>616.3978649287943</v>
       </c>
       <c r="M22" t="n">
-        <v>984.7853641153119</v>
+        <v>718.3375234021053</v>
       </c>
       <c r="N22" t="n">
-        <v>1440.729157624306</v>
+        <v>817.8532846432606</v>
       </c>
       <c r="O22" t="n">
-        <v>1532.648070223218</v>
+        <v>1185.141176252878</v>
       </c>
       <c r="P22" t="n">
-        <v>1611.30057943443</v>
+        <v>1611.300579434432</v>
       </c>
       <c r="Q22" t="n">
-        <v>1833.9482747997</v>
+        <v>1833.948274799701</v>
       </c>
       <c r="R22" t="n">
-        <v>1842.197145490886</v>
+        <v>1842.197145490888</v>
       </c>
       <c r="S22" t="n">
-        <v>1842.197145490886</v>
+        <v>1842.197145490888</v>
       </c>
       <c r="T22" t="n">
-        <v>1715.559762424371</v>
+        <v>1609.724665079581</v>
       </c>
       <c r="U22" t="n">
-        <v>1437.162953562806</v>
+        <v>1609.724665079581</v>
       </c>
       <c r="V22" t="n">
-        <v>1150.207445433236</v>
+        <v>1322.769156950011</v>
       </c>
       <c r="W22" t="n">
-        <v>878.1810410195279</v>
+        <v>1050.742752536303</v>
       </c>
       <c r="X22" t="n">
-        <v>632.7892863529404</v>
+        <v>805.3509978697155</v>
       </c>
       <c r="Y22" t="n">
-        <v>405.3696156670487</v>
+        <v>577.9313271838237</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2195.069728310112</v>
+        <v>1785.571261776226</v>
       </c>
       <c r="C23" t="n">
-        <v>1756.927255493536</v>
+        <v>1347.42878895965</v>
       </c>
       <c r="D23" t="n">
-        <v>1321.01747066798</v>
+        <v>921.5147793474571</v>
       </c>
       <c r="E23" t="n">
-        <v>887.2427258262751</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="F23" t="n">
-        <v>459.3752962354828</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="G23" t="n">
         <v>59.87260491495994</v>
@@ -5992,19 +5992,19 @@
         <v>288.7193304095858</v>
       </c>
       <c r="K23" t="n">
-        <v>524.9909807888067</v>
+        <v>524.9909807888066</v>
       </c>
       <c r="L23" t="n">
-        <v>818.1068556527074</v>
+        <v>818.1068556527073</v>
       </c>
       <c r="M23" t="n">
-        <v>1144.254743821495</v>
+        <v>1144.254743821494</v>
       </c>
       <c r="N23" t="n">
         <v>1475.680045797972</v>
       </c>
       <c r="O23" t="n">
-        <v>1788.635560339265</v>
+        <v>1788.635560339264</v>
       </c>
       <c r="P23" t="n">
         <v>2055.735851518534</v>
@@ -6019,22 +6019,22 @@
         <v>2993.630245747997</v>
       </c>
       <c r="T23" t="n">
-        <v>2983.986248861193</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="U23" t="n">
-        <v>2983.986248861193</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="V23" t="n">
-        <v>2621.36929879502</v>
+        <v>2631.013295681823</v>
       </c>
       <c r="W23" t="n">
-        <v>2621.36929879502</v>
+        <v>2631.013295681823</v>
       </c>
       <c r="X23" t="n">
-        <v>2621.36929879502</v>
+        <v>2211.870832261134</v>
       </c>
       <c r="Y23" t="n">
-        <v>2621.36929879502</v>
+        <v>2211.870832261134</v>
       </c>
     </row>
     <row r="24">
@@ -6065,10 +6065,10 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I24" t="n">
-        <v>94.08934108643594</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J24" t="n">
-        <v>187.9826804329031</v>
+        <v>187.9826804329032</v>
       </c>
       <c r="K24" t="n">
         <v>348.4613524870733</v>
@@ -6147,25 +6147,25 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J25" t="n">
-        <v>118.7782686171431</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K25" t="n">
-        <v>219.7541432517691</v>
+        <v>576.9165089205267</v>
       </c>
       <c r="L25" t="n">
-        <v>761.8348266380279</v>
+        <v>1109.34172060837</v>
       </c>
       <c r="M25" t="n">
-        <v>1351.92308615747</v>
+        <v>1699.429980127813</v>
       </c>
       <c r="N25" t="n">
-        <v>1921.680801119005</v>
+        <v>2269.187695089347</v>
       </c>
       <c r="O25" t="n">
-        <v>2459.115931692548</v>
+        <v>2806.622825662891</v>
       </c>
       <c r="P25" t="n">
-        <v>2907.391881840573</v>
+        <v>2907.391881840574</v>
       </c>
       <c r="Q25" t="n">
         <v>2977.159153071229</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>892.4268542974677</v>
+        <v>1185.838279720623</v>
       </c>
       <c r="C26" t="n">
-        <v>892.4268542974677</v>
+        <v>747.695806904046</v>
       </c>
       <c r="D26" t="n">
-        <v>892.4268542974677</v>
+        <v>747.695806904046</v>
       </c>
       <c r="E26" t="n">
-        <v>892.4268542974677</v>
+        <v>747.695806904046</v>
       </c>
       <c r="F26" t="n">
-        <v>464.5594247066754</v>
+        <v>319.8283773132537</v>
       </c>
       <c r="G26" t="n">
-        <v>65.05673338615259</v>
+        <v>319.8283773132537</v>
       </c>
       <c r="H26" t="n">
-        <v>50.1068258571641</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="I26" t="n">
         <v>121.3067761083447</v>
       </c>
       <c r="J26" t="n">
-        <v>421.0669924540489</v>
+        <v>278.95355135179</v>
       </c>
       <c r="K26" t="n">
-        <v>657.3386428332699</v>
+        <v>515.2252017310109</v>
       </c>
       <c r="L26" t="n">
-        <v>950.4545176971706</v>
+        <v>808.3410765949114</v>
       </c>
       <c r="M26" t="n">
-        <v>1276.602405865958</v>
+        <v>1134.488964763699</v>
       </c>
       <c r="N26" t="n">
-        <v>1608.027707842435</v>
+        <v>1465.914266740176</v>
       </c>
       <c r="O26" t="n">
-        <v>1920.983222383728</v>
+        <v>1778.869781281468</v>
       </c>
       <c r="P26" t="n">
-        <v>2188.083513562997</v>
+        <v>2045.970072460737</v>
       </c>
       <c r="Q26" t="n">
-        <v>2388.664708574064</v>
+        <v>2388.664708574066</v>
       </c>
       <c r="R26" t="n">
-        <v>2505.341292858205</v>
+        <v>2505.341292858207</v>
       </c>
       <c r="S26" t="n">
-        <v>2505.341292858205</v>
+        <v>2505.341292858207</v>
       </c>
       <c r="T26" t="n">
-        <v>2505.341292858205</v>
+        <v>2505.341292858207</v>
       </c>
       <c r="U26" t="n">
-        <v>2505.341292858205</v>
+        <v>2246.270601379721</v>
       </c>
       <c r="V26" t="n">
-        <v>2142.724342792032</v>
+        <v>1883.653651313547</v>
       </c>
       <c r="W26" t="n">
-        <v>1737.868888203065</v>
+        <v>1604.980743141312</v>
       </c>
       <c r="X26" t="n">
-        <v>1318.726424782375</v>
+        <v>1185.838279720623</v>
       </c>
       <c r="Y26" t="n">
-        <v>1318.726424782375</v>
+        <v>1185.838279720623</v>
       </c>
     </row>
     <row r="27">
@@ -6296,16 +6296,16 @@
         <v>166.420576300911</v>
       </c>
       <c r="G27" t="n">
-        <v>82.04947589056786</v>
+        <v>82.04947589056789</v>
       </c>
       <c r="H27" t="n">
-        <v>50.1068258571641</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="I27" t="n">
-        <v>84.32356202864027</v>
+        <v>84.32356202864031</v>
       </c>
       <c r="J27" t="n">
-        <v>178.2169013751074</v>
+        <v>178.2169013751075</v>
       </c>
       <c r="K27" t="n">
         <v>338.6955734292777</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>761.0954801956102</v>
+        <v>735.0115879599231</v>
       </c>
       <c r="C28" t="n">
-        <v>727.1910568306295</v>
+        <v>562.449876443148</v>
       </c>
       <c r="D28" t="n">
-        <v>561.3130640321522</v>
+        <v>396.5718836446707</v>
       </c>
       <c r="E28" t="n">
-        <v>391.5550602828895</v>
+        <v>226.8138798954079</v>
       </c>
       <c r="F28" t="n">
-        <v>214.8480062446457</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="G28" t="n">
-        <v>50.1068258571641</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="H28" t="n">
-        <v>50.1068258571641</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="I28" t="n">
-        <v>50.1068258571641</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="J28" t="n">
-        <v>109.0124895593472</v>
+        <v>109.0124895593473</v>
       </c>
       <c r="K28" t="n">
-        <v>205.8125901269054</v>
+        <v>480.571044698041</v>
       </c>
       <c r="L28" t="n">
-        <v>747.8932735131643</v>
+        <v>1007.095769222464</v>
       </c>
       <c r="M28" t="n">
-        <v>1337.981533032607</v>
+        <v>1137.700161560993</v>
       </c>
       <c r="N28" t="n">
-        <v>1907.739247994141</v>
+        <v>1265.199073364883</v>
       </c>
       <c r="O28" t="n">
-        <v>2318.333872773098</v>
+        <v>1802.634203938426</v>
       </c>
       <c r="P28" t="n">
-        <v>2419.102928950782</v>
+        <v>2250.910154086451</v>
       </c>
       <c r="Q28" t="n">
-        <v>2488.870200181438</v>
+        <v>2488.870200181439</v>
       </c>
       <c r="R28" t="n">
-        <v>2505.341292858205</v>
+        <v>2505.341292858207</v>
       </c>
       <c r="S28" t="n">
-        <v>2505.341292858205</v>
+        <v>2479.257400622518</v>
       </c>
       <c r="T28" t="n">
-        <v>2263.094068761612</v>
+        <v>2237.010176525925</v>
       </c>
       <c r="U28" t="n">
-        <v>1984.707436810355</v>
+        <v>1958.623544574667</v>
       </c>
       <c r="V28" t="n">
-        <v>1697.751928680785</v>
+        <v>1671.668036445098</v>
       </c>
       <c r="W28" t="n">
-        <v>1425.725524267077</v>
+        <v>1399.641632031389</v>
       </c>
       <c r="X28" t="n">
-        <v>1180.333769600489</v>
+        <v>1154.249877364802</v>
       </c>
       <c r="Y28" t="n">
-        <v>952.9140989145974</v>
+        <v>926.8302066789101</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2079.041722373297</v>
+        <v>418.1542421767158</v>
       </c>
       <c r="C29" t="n">
-        <v>1640.899249556721</v>
+        <v>418.1542421767158</v>
       </c>
       <c r="D29" t="n">
-        <v>1204.989464731165</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="E29" t="n">
-        <v>771.2147198894604</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="F29" t="n">
-        <v>343.3472902986682</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="G29" t="n">
-        <v>50.1068258571641</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="H29" t="n">
-        <v>50.1068258571641</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="I29" t="n">
         <v>121.3067761083447</v>
@@ -6466,10 +6466,10 @@
         <v>278.95355135179</v>
       </c>
       <c r="K29" t="n">
-        <v>515.225201731011</v>
+        <v>515.2252017310109</v>
       </c>
       <c r="L29" t="n">
-        <v>808.3410765949117</v>
+        <v>808.3410765949114</v>
       </c>
       <c r="M29" t="n">
         <v>1134.488964763699</v>
@@ -6478,37 +6478,37 @@
         <v>1465.914266740176</v>
       </c>
       <c r="O29" t="n">
-        <v>1778.869781281469</v>
+        <v>1778.869781281468</v>
       </c>
       <c r="P29" t="n">
-        <v>2045.970072460738</v>
+        <v>2045.970072460737</v>
       </c>
       <c r="Q29" t="n">
-        <v>2246.551267471806</v>
+        <v>2246.551267471805</v>
       </c>
       <c r="R29" t="n">
-        <v>2505.341292858205</v>
+        <v>2505.341292858207</v>
       </c>
       <c r="S29" t="n">
-        <v>2505.341292858205</v>
+        <v>2505.341292858207</v>
       </c>
       <c r="T29" t="n">
-        <v>2505.341292858205</v>
+        <v>2293.570041327319</v>
       </c>
       <c r="U29" t="n">
-        <v>2505.341292858205</v>
+        <v>2034.499349848833</v>
       </c>
       <c r="V29" t="n">
-        <v>2505.341292858205</v>
+        <v>1671.882399782659</v>
       </c>
       <c r="W29" t="n">
-        <v>2505.341292858205</v>
+        <v>1671.882399782659</v>
       </c>
       <c r="X29" t="n">
-        <v>2505.341292858205</v>
+        <v>1252.73993636197</v>
       </c>
       <c r="Y29" t="n">
-        <v>2505.341292858205</v>
+        <v>844.4538126616236</v>
       </c>
     </row>
     <row r="30">
@@ -6533,19 +6533,19 @@
         <v>166.420576300911</v>
       </c>
       <c r="G30" t="n">
-        <v>82.04947589056786</v>
+        <v>82.04947589056789</v>
       </c>
       <c r="H30" t="n">
-        <v>50.1068258571641</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="I30" t="n">
-        <v>84.32356202864021</v>
+        <v>84.32356202864024</v>
       </c>
       <c r="J30" t="n">
-        <v>178.2169013751073</v>
+        <v>178.2169013751074</v>
       </c>
       <c r="K30" t="n">
-        <v>338.6955734292775</v>
+        <v>338.6955734292776</v>
       </c>
       <c r="L30" t="n">
         <v>554.4789523042999</v>
@@ -6563,7 +6563,7 @@
         <v>1490.988841907654</v>
       </c>
       <c r="Q30" t="n">
-        <v>1617.847936115889</v>
+        <v>1617.847936115888</v>
       </c>
       <c r="R30" t="n">
         <v>1679.551390541801</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>899.7527683474045</v>
+        <v>1039.482112146869</v>
       </c>
       <c r="C31" t="n">
-        <v>727.1910568306295</v>
+        <v>866.9204006300935</v>
       </c>
       <c r="D31" t="n">
-        <v>561.3130640321522</v>
+        <v>701.0424078316162</v>
       </c>
       <c r="E31" t="n">
-        <v>391.5550602828895</v>
+        <v>531.2844040823534</v>
       </c>
       <c r="F31" t="n">
-        <v>214.8480062446457</v>
+        <v>354.5773500441096</v>
       </c>
       <c r="G31" t="n">
-        <v>50.1068258571641</v>
+        <v>245.5461730416002</v>
       </c>
       <c r="H31" t="n">
-        <v>50.1068258571641</v>
+        <v>113.2021124209161</v>
       </c>
       <c r="I31" t="n">
-        <v>50.1068258571641</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="J31" t="n">
-        <v>109.0124895593472</v>
+        <v>109.0124895593473</v>
       </c>
       <c r="K31" t="n">
-        <v>440.9661644465199</v>
+        <v>205.8125901269055</v>
       </c>
       <c r="L31" t="n">
-        <v>564.8369660648178</v>
+        <v>621.0527677185796</v>
       </c>
       <c r="M31" t="n">
-        <v>695.4413584033473</v>
+        <v>1211.141027238022</v>
       </c>
       <c r="N31" t="n">
-        <v>1265.199073364882</v>
+        <v>1780.898742199556</v>
       </c>
       <c r="O31" t="n">
-        <v>1802.634203938425</v>
+        <v>2318.3338727731</v>
       </c>
       <c r="P31" t="n">
-        <v>2250.91015408645</v>
+        <v>2419.102928950783</v>
       </c>
       <c r="Q31" t="n">
-        <v>2488.870200181438</v>
+        <v>2488.870200181439</v>
       </c>
       <c r="R31" t="n">
-        <v>2505.341292858205</v>
+        <v>2505.341292858207</v>
       </c>
       <c r="S31" t="n">
-        <v>2505.341292858205</v>
+        <v>2505.341292858207</v>
       </c>
       <c r="T31" t="n">
-        <v>2401.751356913406</v>
+        <v>2263.094068761613</v>
       </c>
       <c r="U31" t="n">
-        <v>2123.364724962149</v>
+        <v>2263.094068761613</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.409216832579</v>
+        <v>1976.138560632043</v>
       </c>
       <c r="W31" t="n">
-        <v>1564.382812418871</v>
+        <v>1704.112156218335</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.991057752283</v>
+        <v>1458.720401551747</v>
       </c>
       <c r="Y31" t="n">
-        <v>1091.571387066392</v>
+        <v>1231.300730865856</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2079.041722373297</v>
+        <v>1352.026513090089</v>
       </c>
       <c r="C32" t="n">
-        <v>1640.899249556721</v>
+        <v>913.8840402735119</v>
       </c>
       <c r="D32" t="n">
-        <v>1204.989464731165</v>
+        <v>477.9742554479564</v>
       </c>
       <c r="E32" t="n">
-        <v>771.2147198894604</v>
+        <v>477.9742554479564</v>
       </c>
       <c r="F32" t="n">
-        <v>343.3472902986682</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="G32" t="n">
-        <v>50.1068258571641</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="H32" t="n">
-        <v>50.1068258571641</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="I32" t="n">
         <v>121.3067761083447</v>
       </c>
       <c r="J32" t="n">
-        <v>421.0669924540489</v>
+        <v>278.95355135179</v>
       </c>
       <c r="K32" t="n">
-        <v>657.3386428332699</v>
+        <v>515.2252017310109</v>
       </c>
       <c r="L32" t="n">
-        <v>950.4545176971706</v>
+        <v>808.3410765949114</v>
       </c>
       <c r="M32" t="n">
-        <v>1276.602405865958</v>
+        <v>1134.488964763699</v>
       </c>
       <c r="N32" t="n">
-        <v>1608.027707842435</v>
+        <v>1465.914266740176</v>
       </c>
       <c r="O32" t="n">
-        <v>1920.983222383728</v>
+        <v>1778.869781281468</v>
       </c>
       <c r="P32" t="n">
-        <v>2188.083513562997</v>
+        <v>2045.970072460737</v>
       </c>
       <c r="Q32" t="n">
-        <v>2388.664708574064</v>
+        <v>2246.551267471805</v>
       </c>
       <c r="R32" t="n">
-        <v>2505.341292858205</v>
+        <v>2505.341292858207</v>
       </c>
       <c r="S32" t="n">
-        <v>2505.341292858205</v>
+        <v>2505.341292858207</v>
       </c>
       <c r="T32" t="n">
-        <v>2505.341292858205</v>
+        <v>2293.570041327319</v>
       </c>
       <c r="U32" t="n">
-        <v>2505.341292858205</v>
+        <v>2293.570041327319</v>
       </c>
       <c r="V32" t="n">
-        <v>2505.341292858205</v>
+        <v>1930.953091261145</v>
       </c>
       <c r="W32" t="n">
-        <v>2505.341292858205</v>
+        <v>1760.312636790435</v>
       </c>
       <c r="X32" t="n">
-        <v>2505.341292858205</v>
+        <v>1760.312636790435</v>
       </c>
       <c r="Y32" t="n">
-        <v>2505.341292858205</v>
+        <v>1352.026513090089</v>
       </c>
     </row>
     <row r="33">
@@ -6770,25 +6770,25 @@
         <v>166.420576300911</v>
       </c>
       <c r="G33" t="n">
-        <v>82.04947589056786</v>
+        <v>82.04947589056789</v>
       </c>
       <c r="H33" t="n">
-        <v>50.1068258571641</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="I33" t="n">
-        <v>84.32356202864027</v>
+        <v>84.32356202864024</v>
       </c>
       <c r="J33" t="n">
         <v>178.2169013751074</v>
       </c>
       <c r="K33" t="n">
-        <v>338.6955734292777</v>
+        <v>338.6955734292776</v>
       </c>
       <c r="L33" t="n">
-        <v>554.4789523043</v>
+        <v>554.4789523042999</v>
       </c>
       <c r="M33" t="n">
-        <v>806.2879776069974</v>
+        <v>806.2879776069973</v>
       </c>
       <c r="N33" t="n">
         <v>1064.761638528317</v>
@@ -6800,7 +6800,7 @@
         <v>1490.988841907654</v>
       </c>
       <c r="Q33" t="n">
-        <v>1617.847936115889</v>
+        <v>1617.847936115888</v>
       </c>
       <c r="R33" t="n">
         <v>1679.551390541801</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>616.6689416998445</v>
+        <v>761.0954801956116</v>
       </c>
       <c r="C34" t="n">
-        <v>616.6689416998445</v>
+        <v>588.5337686788365</v>
       </c>
       <c r="D34" t="n">
-        <v>450.7909489013672</v>
+        <v>422.6557758803592</v>
       </c>
       <c r="E34" t="n">
-        <v>281.0329451521044</v>
+        <v>252.8977721310965</v>
       </c>
       <c r="F34" t="n">
-        <v>104.3258911138606</v>
+        <v>76.19071809285268</v>
       </c>
       <c r="G34" t="n">
-        <v>50.1068258571641</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="H34" t="n">
-        <v>50.1068258571641</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="I34" t="n">
-        <v>50.1068258571641</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="J34" t="n">
-        <v>109.0124895593472</v>
+        <v>109.0124895593473</v>
       </c>
       <c r="K34" t="n">
-        <v>205.8125901269054</v>
+        <v>205.8125901269055</v>
       </c>
       <c r="L34" t="n">
-        <v>747.8932735131643</v>
+        <v>621.0527677185796</v>
       </c>
       <c r="M34" t="n">
-        <v>1337.981533032607</v>
+        <v>1211.141027238022</v>
       </c>
       <c r="N34" t="n">
-        <v>1907.739247994141</v>
+        <v>1780.898742199556</v>
       </c>
       <c r="O34" t="n">
-        <v>2318.333872773098</v>
+        <v>2318.3338727731</v>
       </c>
       <c r="P34" t="n">
-        <v>2419.102928950782</v>
+        <v>2419.102928950783</v>
       </c>
       <c r="Q34" t="n">
-        <v>2488.870200181438</v>
+        <v>2488.870200181439</v>
       </c>
       <c r="R34" t="n">
-        <v>2505.341292858205</v>
+        <v>2505.341292858207</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.914754362439</v>
+        <v>2505.341292858207</v>
       </c>
       <c r="T34" t="n">
-        <v>2118.667530265846</v>
+        <v>2263.094068761613</v>
       </c>
       <c r="U34" t="n">
-        <v>1840.280898314589</v>
+        <v>1984.707436810356</v>
       </c>
       <c r="V34" t="n">
-        <v>1553.325390185019</v>
+        <v>1697.751928680786</v>
       </c>
       <c r="W34" t="n">
-        <v>1281.298985771311</v>
+        <v>1425.725524267078</v>
       </c>
       <c r="X34" t="n">
-        <v>1035.907231104723</v>
+        <v>1180.333769600491</v>
       </c>
       <c r="Y34" t="n">
-        <v>808.4875604188317</v>
+        <v>952.9140989145988</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1273.057251148202</v>
+        <v>916.1167282645331</v>
       </c>
       <c r="C35" t="n">
-        <v>834.9147783316257</v>
+        <v>477.9742554479564</v>
       </c>
       <c r="D35" t="n">
-        <v>399.0049935060702</v>
+        <v>477.9742554479564</v>
       </c>
       <c r="E35" t="n">
-        <v>399.0049935060702</v>
+        <v>477.9742554479564</v>
       </c>
       <c r="F35" t="n">
-        <v>399.0049935060702</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="G35" t="n">
-        <v>50.1068258571641</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="H35" t="n">
-        <v>50.1068258571641</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="I35" t="n">
         <v>121.3067761083447</v>
       </c>
       <c r="J35" t="n">
-        <v>278.95355135179</v>
+        <v>421.0669924540509</v>
       </c>
       <c r="K35" t="n">
-        <v>515.225201731011</v>
+        <v>657.3386428332718</v>
       </c>
       <c r="L35" t="n">
-        <v>808.3410765949117</v>
+        <v>950.4545176971724</v>
       </c>
       <c r="M35" t="n">
-        <v>1134.488964763699</v>
+        <v>1276.60240586596</v>
       </c>
       <c r="N35" t="n">
-        <v>1465.914266740176</v>
+        <v>1608.027707842437</v>
       </c>
       <c r="O35" t="n">
-        <v>1778.869781281469</v>
+        <v>1920.98322238373</v>
       </c>
       <c r="P35" t="n">
-        <v>2045.970072460738</v>
+        <v>2188.083513562999</v>
       </c>
       <c r="Q35" t="n">
-        <v>2246.551267471806</v>
+        <v>2388.664708574066</v>
       </c>
       <c r="R35" t="n">
-        <v>2505.341292858205</v>
+        <v>2505.341292858207</v>
       </c>
       <c r="S35" t="n">
-        <v>2505.341292858205</v>
+        <v>2505.341292858207</v>
       </c>
       <c r="T35" t="n">
-        <v>2505.341292858205</v>
+        <v>2293.570041327319</v>
       </c>
       <c r="U35" t="n">
-        <v>2505.341292858205</v>
+        <v>2034.499349848833</v>
       </c>
       <c r="V35" t="n">
-        <v>2505.341292858205</v>
+        <v>2034.499349848833</v>
       </c>
       <c r="W35" t="n">
-        <v>2100.485838269238</v>
+        <v>2034.499349848833</v>
       </c>
       <c r="X35" t="n">
-        <v>1681.343374848549</v>
+        <v>1750.702422449788</v>
       </c>
       <c r="Y35" t="n">
-        <v>1273.057251148202</v>
+        <v>1342.416298749441</v>
       </c>
     </row>
     <row r="36">
@@ -7007,13 +7007,13 @@
         <v>166.420576300911</v>
       </c>
       <c r="G36" t="n">
-        <v>82.04947589056786</v>
+        <v>82.04947589056789</v>
       </c>
       <c r="H36" t="n">
-        <v>50.1068258571641</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="I36" t="n">
-        <v>84.32356202864021</v>
+        <v>84.32356202864038</v>
       </c>
       <c r="J36" t="n">
         <v>178.2169013751073</v>
@@ -7022,10 +7022,10 @@
         <v>338.6955734292775</v>
       </c>
       <c r="L36" t="n">
-        <v>554.4789523042999</v>
+        <v>554.4789523042998</v>
       </c>
       <c r="M36" t="n">
-        <v>806.2879776069973</v>
+        <v>806.2879776069972</v>
       </c>
       <c r="N36" t="n">
         <v>1064.761638528317</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>899.7527683474045</v>
+        <v>761.0954801956116</v>
       </c>
       <c r="C37" t="n">
-        <v>727.1910568306295</v>
+        <v>588.5337686788365</v>
       </c>
       <c r="D37" t="n">
-        <v>561.3130640321522</v>
+        <v>422.6557758803592</v>
       </c>
       <c r="E37" t="n">
-        <v>391.5550602828895</v>
+        <v>252.8977721310965</v>
       </c>
       <c r="F37" t="n">
-        <v>214.8480062446457</v>
+        <v>76.19071809285268</v>
       </c>
       <c r="G37" t="n">
-        <v>50.1068258571641</v>
+        <v>76.19071809285268</v>
       </c>
       <c r="H37" t="n">
-        <v>50.1068258571641</v>
+        <v>76.19071809285268</v>
       </c>
       <c r="I37" t="n">
-        <v>50.1068258571641</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="J37" t="n">
-        <v>109.0124895593472</v>
+        <v>109.0124895593473</v>
       </c>
       <c r="K37" t="n">
-        <v>205.8125901269054</v>
+        <v>205.8125901269055</v>
       </c>
       <c r="L37" t="n">
-        <v>747.8932735131643</v>
+        <v>621.0527677185796</v>
       </c>
       <c r="M37" t="n">
-        <v>1337.981533032607</v>
+        <v>1211.141027238022</v>
       </c>
       <c r="N37" t="n">
-        <v>1907.739247994141</v>
+        <v>1780.898742199556</v>
       </c>
       <c r="O37" t="n">
-        <v>2318.333872773098</v>
+        <v>2318.3338727731</v>
       </c>
       <c r="P37" t="n">
-        <v>2419.102928950782</v>
+        <v>2419.102928950783</v>
       </c>
       <c r="Q37" t="n">
-        <v>2488.870200181438</v>
+        <v>2488.870200181439</v>
       </c>
       <c r="R37" t="n">
-        <v>2505.341292858205</v>
+        <v>2505.341292858207</v>
       </c>
       <c r="S37" t="n">
-        <v>2505.341292858205</v>
+        <v>2505.341292858207</v>
       </c>
       <c r="T37" t="n">
-        <v>2401.751356913406</v>
+        <v>2263.094068761613</v>
       </c>
       <c r="U37" t="n">
-        <v>2123.364724962149</v>
+        <v>1984.707436810356</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.409216832579</v>
+        <v>1697.751928680786</v>
       </c>
       <c r="W37" t="n">
-        <v>1564.382812418871</v>
+        <v>1425.725524267078</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.991057752283</v>
+        <v>1180.333769600491</v>
       </c>
       <c r="Y37" t="n">
-        <v>1091.571387066392</v>
+        <v>952.9140989145988</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1785.801257931793</v>
+        <v>319.8283773132537</v>
       </c>
       <c r="C38" t="n">
-        <v>1347.658785115217</v>
+        <v>319.8283773132537</v>
       </c>
       <c r="D38" t="n">
-        <v>911.7490002896611</v>
+        <v>319.8283773132537</v>
       </c>
       <c r="E38" t="n">
-        <v>477.9742554479564</v>
+        <v>319.8283773132537</v>
       </c>
       <c r="F38" t="n">
-        <v>50.1068258571641</v>
+        <v>319.8283773132537</v>
       </c>
       <c r="G38" t="n">
-        <v>50.1068258571641</v>
+        <v>319.8283773132537</v>
       </c>
       <c r="H38" t="n">
-        <v>50.1068258571641</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="I38" t="n">
         <v>121.3067761083447</v>
       </c>
       <c r="J38" t="n">
-        <v>278.95355135179</v>
+        <v>421.0669924540509</v>
       </c>
       <c r="K38" t="n">
-        <v>515.225201731011</v>
+        <v>657.3386428332718</v>
       </c>
       <c r="L38" t="n">
-        <v>808.3410765949117</v>
+        <v>950.4545176971724</v>
       </c>
       <c r="M38" t="n">
-        <v>1134.488964763699</v>
+        <v>1276.60240586596</v>
       </c>
       <c r="N38" t="n">
-        <v>1465.914266740176</v>
+        <v>1608.027707842437</v>
       </c>
       <c r="O38" t="n">
-        <v>1778.869781281469</v>
+        <v>1920.98322238373</v>
       </c>
       <c r="P38" t="n">
-        <v>2045.970072460738</v>
+        <v>2188.083513562999</v>
       </c>
       <c r="Q38" t="n">
-        <v>2388.664708574064</v>
+        <v>2388.664708574066</v>
       </c>
       <c r="R38" t="n">
-        <v>2505.341292858205</v>
+        <v>2505.341292858207</v>
       </c>
       <c r="S38" t="n">
-        <v>2505.341292858205</v>
+        <v>2464.874923073004</v>
       </c>
       <c r="T38" t="n">
-        <v>2471.171519895187</v>
+        <v>2464.874923073004</v>
       </c>
       <c r="U38" t="n">
-        <v>2212.100828416701</v>
+        <v>2205.804231594518</v>
       </c>
       <c r="V38" t="n">
-        <v>2212.100828416701</v>
+        <v>1843.187281528344</v>
       </c>
       <c r="W38" t="n">
-        <v>2212.100828416701</v>
+        <v>1438.331826939377</v>
       </c>
       <c r="X38" t="n">
-        <v>2212.100828416701</v>
+        <v>1019.189363518688</v>
       </c>
       <c r="Y38" t="n">
-        <v>2212.100828416701</v>
+        <v>746.1279477981616</v>
       </c>
     </row>
     <row r="39">
@@ -7244,28 +7244,28 @@
         <v>166.420576300911</v>
       </c>
       <c r="G39" t="n">
-        <v>82.04947589056786</v>
+        <v>82.04947589056789</v>
       </c>
       <c r="H39" t="n">
-        <v>50.1068258571641</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="I39" t="n">
-        <v>84.32356202864021</v>
+        <v>84.32356202864064</v>
       </c>
       <c r="J39" t="n">
-        <v>178.2169013751073</v>
+        <v>178.2169013751078</v>
       </c>
       <c r="K39" t="n">
-        <v>338.6955734292775</v>
+        <v>338.6955734292779</v>
       </c>
       <c r="L39" t="n">
-        <v>554.4789523043</v>
+        <v>554.4789523043002</v>
       </c>
       <c r="M39" t="n">
-        <v>806.2879776069974</v>
+        <v>806.2879776069976</v>
       </c>
       <c r="N39" t="n">
-        <v>1064.761638528317</v>
+        <v>1064.761638528318</v>
       </c>
       <c r="O39" t="n">
         <v>1301.214541342848</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>761.0954801956102</v>
+        <v>899.7527683474045</v>
       </c>
       <c r="C40" t="n">
-        <v>588.5337686788351</v>
+        <v>727.1910568306295</v>
       </c>
       <c r="D40" t="n">
-        <v>422.6557758803579</v>
+        <v>561.3130640321522</v>
       </c>
       <c r="E40" t="n">
-        <v>252.8977721310951</v>
+        <v>391.5550602828895</v>
       </c>
       <c r="F40" t="n">
-        <v>76.19071809285131</v>
+        <v>214.8480062446457</v>
       </c>
       <c r="G40" t="n">
-        <v>50.1068258571641</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="H40" t="n">
-        <v>50.1068258571641</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="I40" t="n">
-        <v>50.1068258571641</v>
+        <v>50.10682585716413</v>
       </c>
       <c r="J40" t="n">
         <v>109.0124895593472</v>
       </c>
       <c r="K40" t="n">
-        <v>440.9661644465199</v>
+        <v>205.8125901269054</v>
       </c>
       <c r="L40" t="n">
-        <v>564.8369660648178</v>
+        <v>747.8932735131643</v>
       </c>
       <c r="M40" t="n">
-        <v>695.4413584033473</v>
+        <v>1337.981533032607</v>
       </c>
       <c r="N40" t="n">
-        <v>1265.199073364882</v>
+        <v>1907.739247994141</v>
       </c>
       <c r="O40" t="n">
-        <v>1802.634203938425</v>
+        <v>2318.3338727731</v>
       </c>
       <c r="P40" t="n">
-        <v>2250.91015408645</v>
+        <v>2419.102928950784</v>
       </c>
       <c r="Q40" t="n">
-        <v>2488.870200181438</v>
+        <v>2488.870200181439</v>
       </c>
       <c r="R40" t="n">
-        <v>2505.341292858205</v>
+        <v>2505.341292858207</v>
       </c>
       <c r="S40" t="n">
-        <v>2505.341292858205</v>
+        <v>2505.341292858207</v>
       </c>
       <c r="T40" t="n">
-        <v>2263.094068761612</v>
+        <v>2401.751356913406</v>
       </c>
       <c r="U40" t="n">
-        <v>1984.707436810355</v>
+        <v>2123.364724962149</v>
       </c>
       <c r="V40" t="n">
-        <v>1697.751928680785</v>
+        <v>1836.409216832579</v>
       </c>
       <c r="W40" t="n">
-        <v>1425.725524267077</v>
+        <v>1564.382812418871</v>
       </c>
       <c r="X40" t="n">
-        <v>1180.333769600489</v>
+        <v>1318.991057752283</v>
       </c>
       <c r="Y40" t="n">
-        <v>952.9140989145974</v>
+        <v>1091.571387066392</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>913.2164539563237</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="C41" t="n">
-        <v>475.073981139747</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D41" t="n">
-        <v>475.073981139747</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I41" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U41" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V41" t="n">
-        <v>2360.327577447737</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W41" t="n">
-        <v>2166.944611562267</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="X41" t="n">
-        <v>1747.802148141578</v>
+        <v>1107.7262209515</v>
       </c>
       <c r="Y41" t="n">
-        <v>1339.516024441231</v>
+        <v>699.4400972511531</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I42" t="n">
-        <v>765.0997489345757</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810428</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>732.1113136517137</v>
+        <v>730.9745012407178</v>
       </c>
       <c r="C43" t="n">
-        <v>559.5496021349386</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="D43" t="n">
-        <v>393.6716093364613</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="E43" t="n">
-        <v>223.9136055871985</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F43" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K43" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>744.992999204955</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M43" t="n">
-        <v>1329.17407462327</v>
+        <v>1329.174074623269</v>
       </c>
       <c r="N43" t="n">
         <v>1898.931789584804</v>
       </c>
       <c r="O43" t="n">
-        <v>2173.32015736263</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T43" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U43" t="n">
-        <v>1955.723270266458</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V43" t="n">
-        <v>1668.767762136888</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W43" t="n">
-        <v>1396.74135772318</v>
+        <v>1378.532494457436</v>
       </c>
       <c r="X43" t="n">
-        <v>1151.349603056593</v>
+        <v>1133.140739790848</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.9299323707007</v>
+        <v>905.7210691049565</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1320.76150051161</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="C44" t="n">
-        <v>882.6190276950331</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D44" t="n">
-        <v>446.7092428694776</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E44" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F44" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I44" t="n">
         <v>118.4065018001353</v>
@@ -7651,10 +7651,10 @@
         <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
@@ -7663,37 +7663,37 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S44" t="n">
-        <v>2347.304596645236</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T44" t="n">
-        <v>2347.304596645236</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U44" t="n">
-        <v>2088.23390516675</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="V44" t="n">
-        <v>1725.616955100576</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="W44" t="n">
-        <v>1320.76150051161</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="X44" t="n">
-        <v>1320.76150051161</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="Y44" t="n">
-        <v>1320.76150051161</v>
+        <v>1355.033554032792</v>
       </c>
     </row>
     <row r="45">
@@ -7706,49 +7706,49 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J45" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M45" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P45" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q45" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.947661807678</v>
       </c>
       <c r="R45" t="n">
         <v>1676.651116233592</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>732.1113136517137</v>
+        <v>894.4683967363981</v>
       </c>
       <c r="C46" t="n">
-        <v>559.5496021349386</v>
+        <v>721.906685219623</v>
       </c>
       <c r="D46" t="n">
-        <v>393.6716093364613</v>
+        <v>556.0286924211457</v>
       </c>
       <c r="E46" t="n">
-        <v>223.9136055871985</v>
+        <v>386.270688671883</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895474</v>
+        <v>209.5636346336392</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J46" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>564.2504555545214</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L46" t="n">
-        <v>1106.33113894078</v>
+        <v>413.3628026016838</v>
       </c>
       <c r="M46" t="n">
-        <v>1236.93553127931</v>
+        <v>897.93453696322</v>
       </c>
       <c r="N46" t="n">
-        <v>1364.434443083199</v>
+        <v>1467.692251924754</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527957</v>
+        <v>2005.127382498297</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T46" t="n">
-        <v>2234.109902217715</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>1955.723270266458</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="V46" t="n">
-        <v>1668.767762136888</v>
+        <v>1831.124845221573</v>
       </c>
       <c r="W46" t="n">
-        <v>1396.74135772318</v>
+        <v>1559.098440807865</v>
       </c>
       <c r="X46" t="n">
-        <v>1151.349603056593</v>
+        <v>1313.706686141277</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.9299323707007</v>
+        <v>1086.287015455385</v>
       </c>
     </row>
   </sheetData>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,25 +8455,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N8" t="n">
+      <c r="Q8" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8616,22 +8616,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N10" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>25.7381070948154</v>
       </c>
       <c r="R12" t="n">
-        <v>117.7675060179286</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>49.97917541508696</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>334.3211968967578</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>329.4301932710912</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>45.33358696425171</v>
       </c>
       <c r="O13" t="n">
-        <v>338.7555601389261</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9090,10 +9090,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>188.1762207334397</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>329.4301932710911</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9102,7 +9102,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>209.7630920788556</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9245,10 +9245,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>334.0268580356827</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>8.377321633041561</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>224.0478381592884</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>82.43955457822892</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>362.8887410791245</v>
       </c>
       <c r="M19" t="n">
-        <v>269.1392330436433</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>360.0283154220597</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>367.7018999091747</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>224.0478381592886</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>224.0478381592902</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9567,16 +9567,16 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>269.1392330436433</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>360.0283154220597</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>278.1504838491974</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>456.0429799810081</v>
+        <v>456.0429799810086</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>4.217953603098778</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>412.6812222924705</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
@@ -9813,7 +9813,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>143.5489304063221</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>143.5489304063244</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>406.7211342486112</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>295.7866095264601</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>143.5489304063221</v>
+        <v>143.5489304063244</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10272,13 +10272,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>237.5288629491055</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>294.3125009832083</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10287,10 +10287,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>143.5489304063221</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>143.5489304063244</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>294.3125009832083</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645587</v>
@@ -10521,7 +10521,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>295.7866095264601</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>143.5489304063241</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>143.5489304063221</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>294.3125009832083</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645587</v>
@@ -10758,7 +10758,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>295.7866095264601</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>143.5489304063242</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>143.5489304063221</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10983,25 +10983,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>237.5288629491055</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>295.7866095264619</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11226,13 +11226,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371567</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>158.2045317475397</v>
+        <v>158.2045317475392</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,22 +11457,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>357.542769720209</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>177.1920849464602</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>18.87936968596779</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
@@ -22600,22 +22600,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>9.723526036471668</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>175.2078860600423</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.071525952763579</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22767,10 +22767,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22834,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>173.5402773272965</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -22849,7 +22849,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>38.26486251750879</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -22947,7 +22947,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -22956,10 +22956,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22989,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>2.883709549229028</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>68.8773468473951</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -23032,10 +23032,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>394.3264457867348</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>74.70556879775756</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23184,7 +23184,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23226,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>151.7409492056557</v>
       </c>
       <c r="T10" t="n">
-        <v>153.965203041374</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23260,22 +23260,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>430.7648190785146</v>
       </c>
       <c r="D11" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>396.0346945768795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>272.4217836655541</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>52.07140607624191</v>
       </c>
       <c r="T11" t="n">
-        <v>211.9606135828359</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.5221469772661</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>40.52414525755449</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.3301761740106</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>133.122498409159</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.57375468953282</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>147.1022126635735</v>
+        <v>38.34152331424559</v>
       </c>
       <c r="T13" t="n">
-        <v>81.21899079042294</v>
+        <v>240.8348570146258</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.615660591221</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23506,7 +23506,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>173.0355431423927</v>
       </c>
       <c r="G14" t="n">
         <v>396.0346945768795</v>
@@ -23548,7 +23548,7 @@
         <v>52.07140607624191</v>
       </c>
       <c r="T14" t="n">
-        <v>144.3052315772294</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.5221469772661</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>147.1022126635735</v>
+        <v>3.674897086601391</v>
       </c>
       <c r="T16" t="n">
-        <v>81.21899079042294</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.615660591221</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23734,16 +23734,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>84.15037939445983</v>
       </c>
       <c r="G17" t="n">
         <v>395.9194457228784</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>49.4451728156934</v>
+        <v>49.44517281569336</v>
       </c>
       <c r="T17" t="n">
         <v>211.4561117244464</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5129270689461</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>331.8447172417023</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -23898,19 +23898,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.2784795056893</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>132.6628680308108</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>68.01909488219579</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>146.2012807256458</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>115.2429620141294</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6128407729489</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>153.0118520676317</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23980,13 +23980,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>235.2397886679748</v>
       </c>
       <c r="H20" t="n">
-        <v>271.241491339516</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>49.4451728156934</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.4561117244464</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>81.47328618537378</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24037,7 +24037,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -24147,7 +24147,7 @@
         <v>132.6628680308108</v>
       </c>
       <c r="I22" t="n">
-        <v>68.01909488219579</v>
+        <v>68.01909488219576</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>146.2012807256458</v>
+        <v>146.2012807256457</v>
       </c>
       <c r="T22" t="n">
-        <v>115.2429620141294</v>
+        <v>10.46621564278598</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6128407729489</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>9.895817461229058</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
         <v>267.0243359415286</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T23" t="n">
-        <v>200.1059820976434</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
         <v>256.4799845637012</v>
@@ -24271,7 +24271,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>252.2239274878301</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,13 +24499,13 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>124.9207209525642</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>137.2707152702764</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
         <v>131.0206200144773</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>117.1592197974763</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>67.18374482094379</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>105.1996046102286</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -24733,22 +24733,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>55.15290335112243</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>137.2707152702764</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,13 +24925,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>105.1996046102286</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24970,22 +24970,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>231.8728501170739</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>109.4168939794772</v>
+        <v>137.2707152702751</v>
       </c>
       <c r="H34" t="n">
         <v>131.0206200144773</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>50.09847843490053</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25207,19 +25207,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>133.9920806614277</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>36.64128038478277</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>137.2707152702764</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>175.8254637821909</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>133.8724609000219</v>
       </c>
     </row>
     <row r="39">
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>137.2707152702764</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>137.2707152702751</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>205.7623619281701</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>209.357763816462</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>16.90133034620089</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25873,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>27.16895509287498</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T44" t="n">
         <v>209.6535390155789</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>35.18072073490043</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>2.360256329769157</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>114.8692533779057</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355573.1335460969</v>
+        <v>355573.1335460968</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355573.1335460968</v>
+        <v>355573.1335460967</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>341465.4863725207</v>
+        <v>341465.4863725211</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>341465.4863725208</v>
+        <v>341465.4863725211</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>502388.894705071</v>
+        <v>502388.8947050712</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>429797.6982553325</v>
+        <v>429797.6982553328</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>429797.6982553325</v>
+        <v>429797.6982553329</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>429797.6982553325</v>
+        <v>429797.6982553328</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>429797.6982553325</v>
+        <v>429797.6982553328</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>429797.6982553326</v>
+        <v>429797.6982553328</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>408239.3176264682</v>
+        <v>408239.3176264681</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>408239.3176264682</v>
+        <v>408239.3176264681</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>114192.2206839698</v>
       </c>
       <c r="C2" t="n">
-        <v>114192.2206839698</v>
+        <v>114192.2206839699</v>
       </c>
       <c r="D2" t="n">
         <v>114192.2206839698</v>
       </c>
       <c r="E2" t="n">
-        <v>116838.592996125</v>
+        <v>116838.5929961249</v>
       </c>
       <c r="F2" t="n">
         <v>116838.592996125</v>
@@ -26331,25 +26331,25 @@
         <v>123966.140637872</v>
       </c>
       <c r="H2" t="n">
-        <v>123966.140637872</v>
+        <v>123966.1406378721</v>
       </c>
       <c r="I2" t="n">
         <v>179668.805278482</v>
       </c>
       <c r="J2" t="n">
-        <v>156356.1611480522</v>
+        <v>156356.1611480523</v>
       </c>
       <c r="K2" t="n">
-        <v>156356.1611480522</v>
+        <v>156356.1611480523</v>
       </c>
       <c r="L2" t="n">
-        <v>156356.1611480522</v>
+        <v>156356.1611480523</v>
       </c>
       <c r="M2" t="n">
-        <v>156356.1611480522</v>
+        <v>156356.1611480523</v>
       </c>
       <c r="N2" t="n">
-        <v>156356.1611480522</v>
+        <v>156356.1611480523</v>
       </c>
       <c r="O2" t="n">
         <v>149432.6927357765</v>
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>32225.63687755627</v>
+        <v>32225.63687755669</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>153652.0937732587</v>
+        <v>153652.0937732582</v>
       </c>
       <c r="J3" t="n">
-        <v>79074.996647516</v>
+        <v>79074.99664751612</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49425.10155853039</v>
+        <v>49425.10155853038</v>
       </c>
       <c r="C4" t="n">
         <v>49425.10155853038</v>
       </c>
       <c r="D4" t="n">
-        <v>49425.10155853039</v>
+        <v>49425.10155853038</v>
       </c>
       <c r="E4" t="n">
-        <v>9523.894035659561</v>
+        <v>9523.894035659563</v>
       </c>
       <c r="F4" t="n">
-        <v>9523.894035659556</v>
+        <v>9523.894035659559</v>
       </c>
       <c r="G4" t="n">
-        <v>9102.808484265737</v>
+        <v>9102.808484265726</v>
       </c>
       <c r="H4" t="n">
-        <v>9102.808484265737</v>
+        <v>9102.80848426573</v>
       </c>
       <c r="I4" t="n">
-        <v>20685.1868428559</v>
+        <v>20685.18684285591</v>
       </c>
       <c r="J4" t="n">
-        <v>10594.92152668171</v>
+        <v>10594.92152668176</v>
       </c>
       <c r="K4" t="n">
-        <v>10594.92152668171</v>
+        <v>10594.92152668175</v>
       </c>
       <c r="L4" t="n">
-        <v>10594.92152668171</v>
+        <v>10594.92152668175</v>
       </c>
       <c r="M4" t="n">
-        <v>10594.92152668171</v>
+        <v>10594.92152668175</v>
       </c>
       <c r="N4" t="n">
-        <v>10594.92152668171</v>
+        <v>10594.92152668175</v>
       </c>
       <c r="O4" t="n">
-        <v>7598.280184877576</v>
+        <v>7598.280184877571</v>
       </c>
       <c r="P4" t="n">
-        <v>7598.280184877579</v>
+        <v>7598.280184877582</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>33113.33731766298</v>
       </c>
       <c r="G5" t="n">
-        <v>35942.5115149362</v>
+        <v>35942.51151493624</v>
       </c>
       <c r="H5" t="n">
-        <v>35942.5115149362</v>
+        <v>35942.51151493624</v>
       </c>
       <c r="I5" t="n">
         <v>55677.28176780177</v>
       </c>
       <c r="J5" t="n">
-        <v>48255.28968387694</v>
+        <v>48255.28968387695</v>
       </c>
       <c r="K5" t="n">
-        <v>48255.28968387694</v>
+        <v>48255.28968387695</v>
       </c>
       <c r="L5" t="n">
-        <v>48255.28968387694</v>
+        <v>48255.28968387695</v>
       </c>
       <c r="M5" t="n">
-        <v>48255.28968387694</v>
+        <v>48255.28968387695</v>
       </c>
       <c r="N5" t="n">
-        <v>48255.28968387694</v>
+        <v>48255.28968387695</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136848.9696714928</v>
+        <v>-137588.3262834085</v>
       </c>
       <c r="C6" t="n">
-        <v>5342.330988217123</v>
+        <v>4602.974376301485</v>
       </c>
       <c r="D6" t="n">
-        <v>5342.330988217116</v>
+        <v>4602.974376301455</v>
       </c>
       <c r="E6" t="n">
-        <v>-195423.2346880943</v>
+        <v>-196148.6630246829</v>
       </c>
       <c r="F6" t="n">
-        <v>74201.36164280244</v>
+        <v>73475.93330621392</v>
       </c>
       <c r="G6" t="n">
-        <v>46695.18376111377</v>
+        <v>46007.26883316563</v>
       </c>
       <c r="H6" t="n">
-        <v>78920.82063867005</v>
+        <v>78232.90571072236</v>
       </c>
       <c r="I6" t="n">
-        <v>-50345.75710543431</v>
+        <v>-50740.50011422051</v>
       </c>
       <c r="J6" t="n">
-        <v>18430.95328997757</v>
+        <v>17913.51215418855</v>
       </c>
       <c r="K6" t="n">
-        <v>97505.94993749354</v>
+        <v>96988.50880170471</v>
       </c>
       <c r="L6" t="n">
-        <v>97505.94993749354</v>
+        <v>96988.50880170471</v>
       </c>
       <c r="M6" t="n">
-        <v>97505.94993749354</v>
+        <v>96988.50880170468</v>
       </c>
       <c r="N6" t="n">
-        <v>97505.94993749357</v>
+        <v>96988.50880170468</v>
       </c>
       <c r="O6" t="n">
-        <v>95783.33134126112</v>
+        <v>95229.45089803914</v>
       </c>
       <c r="P6" t="n">
-        <v>95783.33134126109</v>
+        <v>95229.45089803914</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>335.6031734147081</v>
       </c>
       <c r="G3" t="n">
-        <v>364.2713258474648</v>
+        <v>364.2713258474652</v>
       </c>
       <c r="H3" t="n">
-        <v>364.2713258474648</v>
+        <v>364.2713258474651</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
     </row>
     <row r="4">
@@ -26804,34 +26804,34 @@
         <v>424.2958575201043</v>
       </c>
       <c r="G4" t="n">
-        <v>460.5492863727216</v>
+        <v>460.549286372722</v>
       </c>
       <c r="H4" t="n">
-        <v>460.5492863727216</v>
+        <v>460.549286372722</v>
       </c>
       <c r="I4" t="n">
         <v>748.4075614369992</v>
       </c>
       <c r="J4" t="n">
-        <v>626.3353232145513</v>
+        <v>626.3353232145516</v>
       </c>
       <c r="K4" t="n">
-        <v>626.3353232145513</v>
+        <v>626.3353232145516</v>
       </c>
       <c r="L4" t="n">
-        <v>626.3353232145513</v>
+        <v>626.3353232145516</v>
       </c>
       <c r="M4" t="n">
-        <v>626.3353232145513</v>
+        <v>626.3353232145516</v>
       </c>
       <c r="N4" t="n">
-        <v>626.3353232145513</v>
+        <v>626.3353232145516</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
     </row>
   </sheetData>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>28.66815243275664</v>
+        <v>28.66815243275704</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>102.4306022457564</v>
+        <v>102.4306022457559</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27026,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>36.25342885261725</v>
+        <v>36.25342885261767</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>287.8582750642777</v>
+        <v>287.8582750642772</v>
       </c>
       <c r="J4" t="n">
-        <v>302.2236192976563</v>
+        <v>302.2236192976568</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>36.25342885261725</v>
+        <v>36.25342885261767</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.464407340090309</v>
+        <v>1.464407340090311</v>
       </c>
       <c r="H17" t="n">
-        <v>14.99736167169989</v>
+        <v>14.9973616716999</v>
       </c>
       <c r="I17" t="n">
-        <v>56.45656397883171</v>
+        <v>56.45656397883177</v>
       </c>
       <c r="J17" t="n">
-        <v>124.28974248099</v>
+        <v>124.2897424809902</v>
       </c>
       <c r="K17" t="n">
-        <v>186.2781051870129</v>
+        <v>186.2781051870131</v>
       </c>
       <c r="L17" t="n">
-        <v>231.0944613213017</v>
+        <v>231.094461321302</v>
       </c>
       <c r="M17" t="n">
-        <v>257.1371153556328</v>
+        <v>257.137115355633</v>
       </c>
       <c r="N17" t="n">
-        <v>261.2978627106643</v>
+        <v>261.2978627106647</v>
       </c>
       <c r="O17" t="n">
-        <v>246.7361622226413</v>
+        <v>246.7361622226416</v>
       </c>
       <c r="P17" t="n">
-        <v>210.5836060141618</v>
+        <v>210.583606014162</v>
       </c>
       <c r="Q17" t="n">
-        <v>158.1395181471775</v>
+        <v>158.1395181471777</v>
       </c>
       <c r="R17" t="n">
-        <v>91.98857757694799</v>
+        <v>91.98857757694809</v>
       </c>
       <c r="S17" t="n">
-        <v>33.37018226230796</v>
+        <v>33.370182262308</v>
       </c>
       <c r="T17" t="n">
-        <v>6.410443131245333</v>
+        <v>6.41044313124534</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1171525872072247</v>
+        <v>0.1171525872072249</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.783527002766245</v>
+        <v>0.7835270027662459</v>
       </c>
       <c r="H18" t="n">
-        <v>7.567221316189788</v>
+        <v>7.567221316189797</v>
       </c>
       <c r="I18" t="n">
-        <v>26.97669724436414</v>
+        <v>26.97669724436417</v>
       </c>
       <c r="J18" t="n">
-        <v>74.02611915170037</v>
+        <v>74.02611915170046</v>
       </c>
       <c r="K18" t="n">
-        <v>126.5224283370388</v>
+        <v>126.5224283370389</v>
       </c>
       <c r="L18" t="n">
-        <v>170.1250187365919</v>
+        <v>170.1250187365921</v>
       </c>
       <c r="M18" t="n">
-        <v>198.5278725868683</v>
+        <v>198.5278725868685</v>
       </c>
       <c r="N18" t="n">
-        <v>203.7823146361209</v>
+        <v>203.7823146361211</v>
       </c>
       <c r="O18" t="n">
-        <v>186.421005785353</v>
+        <v>186.4210057853532</v>
       </c>
       <c r="P18" t="n">
-        <v>149.6192923089332</v>
+        <v>149.6192923089334</v>
       </c>
       <c r="Q18" t="n">
-        <v>100.0165345987228</v>
+        <v>100.0165345987229</v>
       </c>
       <c r="R18" t="n">
-        <v>48.64740461034635</v>
+        <v>48.64740461034641</v>
       </c>
       <c r="S18" t="n">
-        <v>14.55367042418879</v>
+        <v>14.55367042418881</v>
       </c>
       <c r="T18" t="n">
-        <v>3.158163664658679</v>
+        <v>3.158163664658683</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05154782912935824</v>
+        <v>0.0515478291293583</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6568827187413299</v>
+        <v>0.6568827187413305</v>
       </c>
       <c r="H19" t="n">
-        <v>5.840284535718373</v>
+        <v>5.840284535718379</v>
       </c>
       <c r="I19" t="n">
-        <v>19.75425485087563</v>
+        <v>19.75425485087566</v>
       </c>
       <c r="J19" t="n">
-        <v>46.44160821501202</v>
+        <v>46.44160821501207</v>
       </c>
       <c r="K19" t="n">
-        <v>76.31782859558358</v>
+        <v>76.31782859558366</v>
       </c>
       <c r="L19" t="n">
-        <v>97.66054529359737</v>
+        <v>97.66054529359747</v>
       </c>
       <c r="M19" t="n">
-        <v>102.9693519932432</v>
+        <v>102.9693519932433</v>
       </c>
       <c r="N19" t="n">
-        <v>100.5209709506619</v>
+        <v>100.520970950662</v>
       </c>
       <c r="O19" t="n">
-        <v>92.84738646354728</v>
+        <v>92.84738646354738</v>
       </c>
       <c r="P19" t="n">
-        <v>79.44697900122408</v>
+        <v>79.44697900122416</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.00497020296718</v>
+        <v>55.00497020296724</v>
       </c>
       <c r="R19" t="n">
-        <v>29.53583569904197</v>
+        <v>29.535835699042</v>
       </c>
       <c r="S19" t="n">
-        <v>11.44767428933753</v>
+        <v>11.44767428933755</v>
       </c>
       <c r="T19" t="n">
-        <v>2.806680707349318</v>
+        <v>2.806680707349321</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03582996647679985</v>
+        <v>0.03582996647679989</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.464407340090309</v>
+        <v>1.464407340090311</v>
       </c>
       <c r="H20" t="n">
-        <v>14.99736167169989</v>
+        <v>14.9973616716999</v>
       </c>
       <c r="I20" t="n">
-        <v>56.45656397883171</v>
+        <v>56.45656397883177</v>
       </c>
       <c r="J20" t="n">
-        <v>124.28974248099</v>
+        <v>124.2897424809901</v>
       </c>
       <c r="K20" t="n">
-        <v>186.2781051870129</v>
+        <v>186.278105187013</v>
       </c>
       <c r="L20" t="n">
-        <v>231.0944613213017</v>
+        <v>231.0944613213019</v>
       </c>
       <c r="M20" t="n">
-        <v>257.1371153556328</v>
+        <v>257.137115355633</v>
       </c>
       <c r="N20" t="n">
-        <v>261.2978627106643</v>
+        <v>261.2978627106646</v>
       </c>
       <c r="O20" t="n">
-        <v>246.7361622226413</v>
+        <v>246.7361622226416</v>
       </c>
       <c r="P20" t="n">
-        <v>210.5836060141618</v>
+        <v>210.583606014162</v>
       </c>
       <c r="Q20" t="n">
-        <v>158.1395181471775</v>
+        <v>158.1395181471777</v>
       </c>
       <c r="R20" t="n">
-        <v>91.98857757694799</v>
+        <v>91.98857757694807</v>
       </c>
       <c r="S20" t="n">
-        <v>33.37018226230796</v>
+        <v>33.37018226230799</v>
       </c>
       <c r="T20" t="n">
-        <v>6.410443131245333</v>
+        <v>6.410443131245339</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1171525872072247</v>
+        <v>0.1171525872072249</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.783527002766245</v>
+        <v>0.7835270027662458</v>
       </c>
       <c r="H21" t="n">
-        <v>7.567221316189788</v>
+        <v>7.567221316189795</v>
       </c>
       <c r="I21" t="n">
-        <v>26.97669724436414</v>
+        <v>26.97669724436416</v>
       </c>
       <c r="J21" t="n">
-        <v>74.02611915170037</v>
+        <v>74.02611915170044</v>
       </c>
       <c r="K21" t="n">
-        <v>126.5224283370388</v>
+        <v>126.5224283370389</v>
       </c>
       <c r="L21" t="n">
-        <v>170.1250187365919</v>
+        <v>170.1250187365921</v>
       </c>
       <c r="M21" t="n">
-        <v>198.5278725868683</v>
+        <v>198.5278725868685</v>
       </c>
       <c r="N21" t="n">
-        <v>203.7823146361209</v>
+        <v>203.7823146361211</v>
       </c>
       <c r="O21" t="n">
-        <v>186.421005785353</v>
+        <v>186.4210057853532</v>
       </c>
       <c r="P21" t="n">
-        <v>149.6192923089332</v>
+        <v>149.6192923089334</v>
       </c>
       <c r="Q21" t="n">
-        <v>100.0165345987228</v>
+        <v>100.0165345987229</v>
       </c>
       <c r="R21" t="n">
-        <v>48.64740461034635</v>
+        <v>48.6474046103464</v>
       </c>
       <c r="S21" t="n">
-        <v>14.55367042418879</v>
+        <v>14.55367042418881</v>
       </c>
       <c r="T21" t="n">
-        <v>3.158163664658679</v>
+        <v>3.158163664658682</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05154782912935824</v>
+        <v>0.05154782912935829</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6568827187413299</v>
+        <v>0.6568827187413304</v>
       </c>
       <c r="H22" t="n">
-        <v>5.840284535718373</v>
+        <v>5.840284535718379</v>
       </c>
       <c r="I22" t="n">
-        <v>19.75425485087563</v>
+        <v>19.75425485087565</v>
       </c>
       <c r="J22" t="n">
-        <v>46.44160821501202</v>
+        <v>46.44160821501206</v>
       </c>
       <c r="K22" t="n">
-        <v>76.31782859558358</v>
+        <v>76.31782859558365</v>
       </c>
       <c r="L22" t="n">
-        <v>97.66054529359737</v>
+        <v>97.66054529359745</v>
       </c>
       <c r="M22" t="n">
-        <v>102.9693519932432</v>
+        <v>102.9693519932433</v>
       </c>
       <c r="N22" t="n">
-        <v>100.5209709506619</v>
+        <v>100.520970950662</v>
       </c>
       <c r="O22" t="n">
-        <v>92.84738646354728</v>
+        <v>92.84738646354737</v>
       </c>
       <c r="P22" t="n">
-        <v>79.44697900122408</v>
+        <v>79.44697900122415</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.00497020296718</v>
+        <v>55.00497020296723</v>
       </c>
       <c r="R22" t="n">
-        <v>29.53583569904197</v>
+        <v>29.535835699042</v>
       </c>
       <c r="S22" t="n">
-        <v>11.44767428933753</v>
+        <v>11.44767428933755</v>
       </c>
       <c r="T22" t="n">
-        <v>2.806680707349318</v>
+        <v>2.80668070734932</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03582996647679985</v>
+        <v>0.03582996647679988</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32879,28 +32879,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33037,25 +33037,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33180,28 +33180,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -33213,7 +33213,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,13 +33256,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33274,25 +33274,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
         <v>0.06604272567356906</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
@@ -33344,7 +33344,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33368,10 +33368,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
         <v>0.04590510768130049</v>
@@ -33417,28 +33417,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -33450,7 +33450,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,13 +33493,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33511,25 +33511,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
         <v>0.06604272567356906</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
@@ -33581,7 +33581,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33605,10 +33605,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
         <v>0.04590510768130049</v>
@@ -33654,28 +33654,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33687,7 +33687,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,13 +33730,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -33748,25 +33748,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
         <v>0.06604272567356906</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
@@ -33818,7 +33818,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33842,10 +33842,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
         <v>0.04590510768130049</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34064,28 +34064,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34301,28 +34301,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R43" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N8" t="n">
+      <c r="Q8" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35336,22 +35336,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N10" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>51.60081105582554</v>
       </c>
       <c r="J11" t="n">
-        <v>114.5081400587199</v>
+        <v>114.5081400587198</v>
       </c>
       <c r="K11" t="n">
         <v>171.6180187748791</v>
       </c>
       <c r="L11" t="n">
-        <v>212.9073277935341</v>
+        <v>212.9073277935339</v>
       </c>
       <c r="M11" t="n">
-        <v>236.900425020524</v>
+        <v>236.9004250205242</v>
       </c>
       <c r="N11" t="n">
-        <v>240.7337215691254</v>
+        <v>240.7337215691252</v>
       </c>
       <c r="O11" t="n">
         <v>227.318026873075</v>
@@ -35433,7 +35433,7 @@
         <v>145.6939384646737</v>
       </c>
       <c r="R11" t="n">
-        <v>84.74907675180543</v>
+        <v>84.74907675180566</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>51.18057382505155</v>
+        <v>24.85363123873074</v>
       </c>
       <c r="J12" t="n">
         <v>396.0369556447444</v>
@@ -35497,7 +35497,7 @@
         <v>156.7361801876899</v>
       </c>
       <c r="M12" t="n">
-        <v>182.903729511016</v>
+        <v>182.9037295110159</v>
       </c>
       <c r="N12" t="n">
         <v>187.7446469841393</v>
@@ -35509,10 +35509,10 @@
         <v>137.8442543785807</v>
       </c>
       <c r="Q12" t="n">
-        <v>92.14523357605344</v>
+        <v>117.8833406708688</v>
       </c>
       <c r="R12" t="n">
-        <v>162.5863600071607</v>
+        <v>163.1751954986662</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.78665376469155</v>
+        <v>130.2408812037722</v>
       </c>
       <c r="K13" t="n">
-        <v>120.290791091152</v>
+        <v>347.8454081721616</v>
       </c>
       <c r="L13" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="M13" t="n">
-        <v>94.86566424901332</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N13" t="n">
-        <v>92.60997078835715</v>
+        <v>137.9435577526087</v>
       </c>
       <c r="O13" t="n">
-        <v>424.2958575201044</v>
+        <v>85.54029738117833</v>
       </c>
       <c r="P13" t="n">
-        <v>424.2115665691178</v>
+        <v>73.19450195261106</v>
       </c>
       <c r="Q13" t="n">
         <v>50.67607918562089</v>
@@ -35810,19 +35810,19 @@
         <v>347.8454081721616</v>
       </c>
       <c r="L16" t="n">
-        <v>278.1508813567862</v>
+        <v>89.97466062334649</v>
       </c>
       <c r="M16" t="n">
-        <v>94.86566424901332</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N16" t="n">
-        <v>92.60997078835715</v>
+        <v>92.60997078835703</v>
       </c>
       <c r="O16" t="n">
-        <v>85.54029738117845</v>
+        <v>85.54029738117833</v>
       </c>
       <c r="P16" t="n">
-        <v>424.2115665691178</v>
+        <v>282.9575940314667</v>
       </c>
       <c r="Q16" t="n">
         <v>220.5677709677748</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.04394249970031</v>
+        <v>56.04394249970038</v>
       </c>
       <c r="J17" t="n">
-        <v>124.28974248099</v>
+        <v>124.2897424809902</v>
       </c>
       <c r="K17" t="n">
-        <v>186.2781051870129</v>
+        <v>186.2781051870131</v>
       </c>
       <c r="L17" t="n">
-        <v>231.0944613213017</v>
+        <v>231.0944613213019</v>
       </c>
       <c r="M17" t="n">
-        <v>257.1371153556327</v>
+        <v>257.1371153556329</v>
       </c>
       <c r="N17" t="n">
-        <v>261.2978627106643</v>
+        <v>261.2978627106647</v>
       </c>
       <c r="O17" t="n">
         <v>246.7361622226415</v>
       </c>
       <c r="P17" t="n">
-        <v>210.5836060141617</v>
+        <v>210.5836060141619</v>
       </c>
       <c r="Q17" t="n">
-        <v>158.1395181471778</v>
+        <v>158.1395181471776</v>
       </c>
       <c r="R17" t="n">
-        <v>91.98857757694782</v>
+        <v>91.9885775769485</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>53.30363983068494</v>
+        <v>53.30363983068498</v>
       </c>
       <c r="J18" t="n">
-        <v>74.02611915170037</v>
+        <v>74.02611915170047</v>
       </c>
       <c r="K18" t="n">
-        <v>460.5492863727215</v>
+        <v>126.5224283370389</v>
       </c>
       <c r="L18" t="n">
-        <v>178.5023403696335</v>
+        <v>170.1250187365921</v>
       </c>
       <c r="M18" t="n">
-        <v>198.5278725868683</v>
+        <v>198.5278725868685</v>
       </c>
       <c r="N18" t="n">
-        <v>203.7823146361209</v>
+        <v>203.7823146361211</v>
       </c>
       <c r="O18" t="n">
         <v>186.4210057853531</v>
       </c>
       <c r="P18" t="n">
-        <v>149.6192923089332</v>
+        <v>149.6192923089334</v>
       </c>
       <c r="Q18" t="n">
-        <v>100.0165345987227</v>
+        <v>324.0643727580114</v>
       </c>
       <c r="R18" t="n">
-        <v>48.64740461034626</v>
+        <v>167.0037461197805</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>133.8958356540927</v>
+        <v>46.44160821501206</v>
       </c>
       <c r="K19" t="n">
-        <v>353.8516210916802</v>
+        <v>158.7573831738126</v>
       </c>
       <c r="L19" t="n">
-        <v>97.66054529359735</v>
+        <v>460.549286372722</v>
       </c>
       <c r="M19" t="n">
-        <v>372.1085850368866</v>
+        <v>102.9693519932433</v>
       </c>
       <c r="N19" t="n">
-        <v>460.5492863727216</v>
+        <v>100.5209709506621</v>
       </c>
       <c r="O19" t="n">
-        <v>92.84738646354731</v>
+        <v>460.549286372722</v>
       </c>
       <c r="P19" t="n">
-        <v>79.44697900122401</v>
+        <v>430.464043617731</v>
       </c>
       <c r="Q19" t="n">
-        <v>224.896661985121</v>
+        <v>55.00497020296734</v>
       </c>
       <c r="R19" t="n">
-        <v>8.332192617360132</v>
+        <v>8.332192617360164</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.04394249970031</v>
+        <v>56.04394249970037</v>
       </c>
       <c r="J20" t="n">
-        <v>124.28974248099</v>
+        <v>124.2897424809901</v>
       </c>
       <c r="K20" t="n">
-        <v>186.2781051870128</v>
+        <v>186.278105187013</v>
       </c>
       <c r="L20" t="n">
-        <v>231.0944613213015</v>
+        <v>231.0944613213019</v>
       </c>
       <c r="M20" t="n">
-        <v>257.1371153556328</v>
+        <v>257.137115355633</v>
       </c>
       <c r="N20" t="n">
-        <v>261.2978627106644</v>
+        <v>261.2978627106646</v>
       </c>
       <c r="O20" t="n">
         <v>246.7361622226415</v>
       </c>
       <c r="P20" t="n">
-        <v>210.5836060141617</v>
+        <v>210.5836060141619</v>
       </c>
       <c r="Q20" t="n">
         <v>158.1395181471778</v>
       </c>
       <c r="R20" t="n">
-        <v>91.98857757694782</v>
+        <v>91.98857757694805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>53.30363983068494</v>
+        <v>53.30363983068498</v>
       </c>
       <c r="J21" t="n">
-        <v>74.02611915170037</v>
+        <v>298.073957310989</v>
       </c>
       <c r="K21" t="n">
-        <v>126.5224283370388</v>
+        <v>126.5224283370389</v>
       </c>
       <c r="L21" t="n">
-        <v>170.1250187365919</v>
+        <v>170.1250187365921</v>
       </c>
       <c r="M21" t="n">
-        <v>198.5278725868683</v>
+        <v>198.5278725868684</v>
       </c>
       <c r="N21" t="n">
-        <v>203.7823146361209</v>
+        <v>203.7823146361211</v>
       </c>
       <c r="O21" t="n">
-        <v>186.4210057853529</v>
+        <v>186.4210057853531</v>
       </c>
       <c r="P21" t="n">
-        <v>149.6192923089332</v>
+        <v>149.6192923089334</v>
       </c>
       <c r="Q21" t="n">
-        <v>324.064372758013</v>
+        <v>100.016534598723</v>
       </c>
       <c r="R21" t="n">
         <v>167.0037461197805</v>
@@ -36284,25 +36284,25 @@
         <v>353.8516210916802</v>
       </c>
       <c r="L22" t="n">
-        <v>97.66054529359735</v>
+        <v>97.66054529359747</v>
       </c>
       <c r="M22" t="n">
-        <v>372.1085850368866</v>
+        <v>102.9693519932433</v>
       </c>
       <c r="N22" t="n">
-        <v>460.5492863727216</v>
+        <v>100.520970950662</v>
       </c>
       <c r="O22" t="n">
-        <v>92.84738646354731</v>
+        <v>370.9978703127448</v>
       </c>
       <c r="P22" t="n">
-        <v>79.44697900122401</v>
+        <v>430.464043617731</v>
       </c>
       <c r="Q22" t="n">
         <v>224.896661985121</v>
       </c>
       <c r="R22" t="n">
-        <v>8.332192617360132</v>
+        <v>8.33219261736016</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -36366,7 +36366,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36375,10 +36375,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>658.6502476689552</v>
+        <v>658.6502476689557</v>
       </c>
       <c r="R23" t="n">
         <v>288.7178273103004</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916768</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
-        <v>101.9958329642687</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>547.556245844706</v>
+        <v>537.803244129135</v>
       </c>
       <c r="M25" t="n">
-        <v>596.0487469893359</v>
+        <v>596.048746989336</v>
       </c>
       <c r="N25" t="n">
         <v>575.5128433954892</v>
@@ -36533,13 +36533,13 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485105</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,16 +36591,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J26" t="n">
-        <v>302.7880973188932</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36609,13 +36609,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>346.1561980942715</v>
       </c>
       <c r="R26" t="n">
         <v>117.855135640546</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916785</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -36755,25 +36755,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>547.556245844706</v>
+        <v>531.8431560852757</v>
       </c>
       <c r="M28" t="n">
-        <v>596.0487469893359</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
-        <v>414.7420452312699</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36846,7 +36846,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
         <v>269.7982739184536</v>
@@ -36855,7 +36855,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>261.4040660468681</v>
+        <v>261.4040660468704</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -36922,7 +36922,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
@@ -36934,7 +36934,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233645</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,25 +36992,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>335.3067423102754</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
-        <v>125.1220218366646</v>
+        <v>419.4345228198729</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247773</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N31" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37065,16 +37065,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J32" t="n">
-        <v>302.7880973188932</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37083,7 +37083,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
         <v>269.7982739184536</v>
@@ -37092,7 +37092,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>261.4040660468704</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916785</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -37159,7 +37159,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
@@ -37171,7 +37171,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233645</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,7 +37232,7 @@
         <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
-        <v>547.556245844706</v>
+        <v>419.4345228198729</v>
       </c>
       <c r="M34" t="n">
         <v>596.0487469893359</v>
@@ -37241,7 +37241,7 @@
         <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
-        <v>414.7420452312699</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
         <v>101.7869254320035</v>
@@ -37302,16 +37302,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>302.7880973188951</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
@@ -37329,7 +37329,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>261.4040660468681</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916793</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562314</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -37396,13 +37396,13 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
@@ -37469,7 +37469,7 @@
         <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>547.556245844706</v>
+        <v>419.4345228198729</v>
       </c>
       <c r="M37" t="n">
         <v>596.0487469893359</v>
@@ -37478,7 +37478,7 @@
         <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>414.7420452312699</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
         <v>101.7869254320035</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>302.7880973188952</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37563,7 +37563,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
-        <v>346.1561980942693</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
         <v>117.855135640546</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916819</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -37636,7 +37636,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P39" t="n">
         <v>191.6912126917232</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K40" t="n">
-        <v>335.3067423102754</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247773</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561043</v>
+        <v>414.7420452312717</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125712</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37794,10 +37794,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691673</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37879,10 +37879,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L43" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N43" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
-        <v>277.1599674523495</v>
+        <v>277.1599674523491</v>
       </c>
       <c r="P43" t="n">
         <v>101.7869254320035</v>
@@ -37961,7 +37961,7 @@
         <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,25 +38013,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J44" t="n">
         <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P44" t="n">
         <v>269.7982739184536</v>
@@ -38040,7 +38040,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233713</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L46" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247772</v>
+        <v>489.4663983449861</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O46" t="n">
-        <v>296.14752065127</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
